--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>687459.3593815886</v>
+        <v>682937.1771514369</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30087545.36193291</v>
+        <v>30087545.3619329</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7422292.90343294</v>
+        <v>7422292.903432942</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4.944238506156316</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>228.9396166125186</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.3390573303334</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1536,10 +1536,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.7167301225565</v>
@@ -1548,7 +1548,7 @@
         <v>134.5550226373062</v>
       </c>
       <c r="I13" t="n">
-        <v>72.3769554553414</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.10499757137017</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>153.1383045355418</v>
@@ -1590,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>83.13200709512518</v>
+        <v>12.58263528625427</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T14" t="n">
         <v>210.1512354641813</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V14" t="n">
-        <v>321.2316418190783</v>
+        <v>36.16927565004925</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.716130466999291</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.3769554553414</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>7.10499757137017</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>141.6193257157851</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1559102373387</v>
       </c>
       <c r="U16" t="n">
         <v>277.3347311118176</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.729169524320433</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U17" t="n">
         <v>255.6148311530628</v>
@@ -1906,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>186.0923770454367</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>157.3645335544163</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>50.76707565621465</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>153.1383045355418</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1559102373387</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3347311118176</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>349.5337080697374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>255.6148311530628</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>276.4028261013559</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,19 +2241,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>237.1559102373387</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3347311118176</v>
+        <v>219.309769743059</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>158.3248316567508</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>349.5337080697383</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.73726926693029</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.1512354641813</v>
+        <v>193.1900554930986</v>
       </c>
       <c r="U23" t="n">
         <v>255.6148311530628</v>
@@ -2380,13 +2380,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,19 +2478,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>68.19580520027715</v>
       </c>
       <c r="D25" t="n">
-        <v>48.84363168484309</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.10499757137017</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>153.1383045355418</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1559102373387</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3347311118176</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>365.8268742762799</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>59.65320321448525</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.73726926693029</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>17.95510802424095</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>72.53270631890942</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>130.9326803997343</v>
+        <v>32.2380880673049</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2961,13 +2961,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>87.56183050266782</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>37.64911300005263</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>7.10499757137017</v>
       </c>
       <c r="S31" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1559102373387</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3347311118176</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>270.7190549821842</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H32" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.73726926693029</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>176.5212488448588</v>
       </c>
       <c r="U32" t="n">
         <v>255.6148311530628</v>
@@ -3091,7 +3091,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>141.5096447090972</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>7.10499757137017</v>
       </c>
       <c r="S34" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1559102373387</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>221.0199131460877</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>352.5567331277163</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>183.0706724193436</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>6.954622071791036</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>35.88798961272769</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I37" t="n">
-        <v>72.3769554553414</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S37" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1559102373387</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3347311118176</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>358.3901692117394</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.73726926693029</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T38" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>340.1964335901436</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>153.1383045355418</v>
       </c>
       <c r="T40" t="n">
-        <v>171.0352198950294</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3347311118176</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>24.83203367888542</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>326.6241849658801</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>58.73726926693029</v>
       </c>
       <c r="T41" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>101.4440256587963</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>150.5735731250529</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>37.80612028970968</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>134.5550226373062</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T43" t="n">
         <v>237.1559102373387</v>
@@ -3957,16 +3957,16 @@
         <v>277.3347311118176</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>313.1568948143562</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>58.73726926693029</v>
       </c>
       <c r="T44" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2545191846975</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>104.8305041063232</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>134.5550226373062</v>
@@ -4185,13 +4185,13 @@
         <v>7.10499757137017</v>
       </c>
       <c r="S46" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1559102373387</v>
       </c>
       <c r="U46" t="n">
-        <v>159.0234869017803</v>
+        <v>277.3347311118176</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>675.6028300158166</v>
+        <v>869.4748738339733</v>
       </c>
       <c r="C11" t="n">
-        <v>675.6028300158166</v>
+        <v>869.4748738339733</v>
       </c>
       <c r="D11" t="n">
-        <v>675.6028300158166</v>
+        <v>869.4748738339733</v>
       </c>
       <c r="E11" t="n">
-        <v>444.3506920233736</v>
+        <v>869.4748738339733</v>
       </c>
       <c r="F11" t="n">
         <v>444.3506920233736</v>
       </c>
       <c r="G11" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H11" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I11" t="n">
-        <v>82.46363936387536</v>
+        <v>82.46363936387525</v>
       </c>
       <c r="J11" t="n">
-        <v>217.7424336056675</v>
+        <v>217.7424336056672</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7352879792935</v>
+        <v>428.735287979293</v>
       </c>
       <c r="L11" t="n">
-        <v>696.4871173961205</v>
+        <v>696.4871173961201</v>
       </c>
       <c r="M11" t="n">
-        <v>999.5589014613561</v>
+        <v>999.5589014613562</v>
       </c>
       <c r="N11" t="n">
         <v>1308.284447706123</v>
@@ -5062,31 +5062,31 @@
         <v>1838.98860696587</v>
       </c>
       <c r="Q11" t="n">
-        <v>2012.404604961348</v>
+        <v>2012.404604961347</v>
       </c>
       <c r="R11" t="n">
-        <v>2099.400392565981</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S11" t="n">
-        <v>2099.400392565981</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T11" t="n">
-        <v>2099.400392565981</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="U11" t="n">
-        <v>1841.203593421473</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="V11" t="n">
-        <v>1483.714178547722</v>
+        <v>1682.580402675128</v>
       </c>
       <c r="W11" t="n">
-        <v>1087.322828848069</v>
+        <v>1286.189052975475</v>
       </c>
       <c r="X11" t="n">
-        <v>675.6028300158166</v>
+        <v>874.4690541432221</v>
       </c>
       <c r="Y11" t="n">
-        <v>675.6028300158166</v>
+        <v>874.4690541432221</v>
       </c>
     </row>
     <row r="12">
@@ -5111,13 +5111,13 @@
         <v>178.1476225790692</v>
       </c>
       <c r="G12" t="n">
-        <v>85.15130637965791</v>
+        <v>85.15130637965788</v>
       </c>
       <c r="H12" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I12" t="n">
-        <v>61.66083576940669</v>
+        <v>61.66083576940667</v>
       </c>
       <c r="J12" t="n">
         <v>139.1740587367884</v>
@@ -5126,10 +5126,10 @@
         <v>284.3566619303507</v>
       </c>
       <c r="L12" t="n">
-        <v>505.398126778672</v>
+        <v>776.575777795762</v>
       </c>
       <c r="M12" t="n">
-        <v>745.1355323580806</v>
+        <v>1016.313183375171</v>
       </c>
       <c r="N12" t="n">
         <v>1264.737129518161</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.739958479031</v>
+        <v>751.6699784064451</v>
       </c>
       <c r="C13" t="n">
-        <v>917.7673953579472</v>
+        <v>579.6974152853611</v>
       </c>
       <c r="D13" t="n">
-        <v>754.4506224847179</v>
+        <v>416.3806424121319</v>
       </c>
       <c r="E13" t="n">
-        <v>588.2424166375714</v>
+        <v>416.3806424121319</v>
       </c>
       <c r="F13" t="n">
         <v>416.3806424121319</v>
@@ -5196,55 +5196,55 @@
         <v>115.0960436647958</v>
       </c>
       <c r="I13" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="J13" t="n">
-        <v>82.98836776881164</v>
+        <v>160.9100844170325</v>
       </c>
       <c r="K13" t="n">
-        <v>163.1829501660236</v>
+        <v>488.3872759282665</v>
       </c>
       <c r="L13" t="n">
-        <v>393.6876418966843</v>
+        <v>595.8684234949386</v>
       </c>
       <c r="M13" t="n">
-        <v>913.2892390567646</v>
+        <v>709.7216946248996</v>
       </c>
       <c r="N13" t="n">
-        <v>1025.712181833545</v>
+        <v>1025.712181833544</v>
       </c>
       <c r="O13" t="n">
-        <v>1503.954413022566</v>
+        <v>1503.954413022565</v>
       </c>
       <c r="P13" t="n">
         <v>1899.642306432964</v>
       </c>
       <c r="Q13" t="n">
-        <v>2099.400392565981</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="R13" t="n">
-        <v>2092.223627342375</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S13" t="n">
-        <v>1937.538471245868</v>
+        <v>1944.715236469473</v>
       </c>
       <c r="T13" t="n">
-        <v>1697.987046763707</v>
+        <v>1705.163811987313</v>
       </c>
       <c r="U13" t="n">
-        <v>1697.987046763707</v>
+        <v>1705.163811987313</v>
       </c>
       <c r="V13" t="n">
-        <v>1416.275579371736</v>
+        <v>1423.452344595342</v>
       </c>
       <c r="W13" t="n">
-        <v>1332.303855033226</v>
+        <v>1410.742611982964</v>
       </c>
       <c r="X13" t="n">
-        <v>1089.739958479031</v>
+        <v>1168.178715428769</v>
       </c>
       <c r="Y13" t="n">
-        <v>1089.739958479031</v>
+        <v>941.8359471185108</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>745.5927425944162</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="C14" t="n">
-        <v>745.5927425944162</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="D14" t="n">
-        <v>745.5927425944162</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="E14" t="n">
         <v>319.6158027422738</v>
@@ -5272,7 +5272,7 @@
         <v>319.6158027422738</v>
       </c>
       <c r="H14" t="n">
-        <v>41.98800785131961</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I14" t="n">
         <v>82.46363936387525</v>
@@ -5281,13 +5281,13 @@
         <v>217.7424336056674</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7352879792934</v>
+        <v>428.7352879792936</v>
       </c>
       <c r="L14" t="n">
-        <v>696.4871173961205</v>
+        <v>696.4871173961208</v>
       </c>
       <c r="M14" t="n">
-        <v>999.5589014613563</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N14" t="n">
         <v>1308.284447706123</v>
@@ -5296,34 +5296,34 @@
         <v>1597.63824664654</v>
       </c>
       <c r="P14" t="n">
-        <v>1838.98860696587</v>
+        <v>1838.988606965869</v>
       </c>
       <c r="Q14" t="n">
-        <v>2012.404604961348</v>
+        <v>2012.404604961347</v>
       </c>
       <c r="R14" t="n">
         <v>2099.40039256598</v>
       </c>
       <c r="S14" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T14" t="n">
-        <v>1887.126417349636</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="U14" t="n">
-        <v>1887.126417349636</v>
+        <v>1569.599043188026</v>
       </c>
       <c r="V14" t="n">
-        <v>1562.650011471779</v>
+        <v>1533.064421319289</v>
       </c>
       <c r="W14" t="n">
-        <v>1562.650011471779</v>
+        <v>1136.673071619636</v>
       </c>
       <c r="X14" t="n">
-        <v>1150.930012639526</v>
+        <v>724.9530727873835</v>
       </c>
       <c r="Y14" t="n">
-        <v>745.5927425944162</v>
+        <v>319.6158027422738</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>178.1476225790692</v>
       </c>
       <c r="G15" t="n">
-        <v>85.1513063796579</v>
+        <v>85.15130637965788</v>
       </c>
       <c r="H15" t="n">
-        <v>41.98800785131961</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I15" t="n">
-        <v>61.66083576940669</v>
+        <v>61.66083576940667</v>
       </c>
       <c r="J15" t="n">
-        <v>139.1740587367884</v>
+        <v>428.6498350246929</v>
       </c>
       <c r="K15" t="n">
-        <v>284.3566619303507</v>
+        <v>573.8324382182552</v>
       </c>
       <c r="L15" t="n">
-        <v>487.1000015078574</v>
+        <v>776.575777795762</v>
       </c>
       <c r="M15" t="n">
-        <v>726.837407087266</v>
+        <v>1016.313183375171</v>
       </c>
       <c r="N15" t="n">
-        <v>975.2613532302563</v>
+        <v>1264.737129518161</v>
       </c>
       <c r="O15" t="n">
-        <v>1198.910013673976</v>
+        <v>1488.38578996188</v>
       </c>
       <c r="P15" t="n">
-        <v>1375.266157629725</v>
+        <v>1664.74193391763</v>
       </c>
       <c r="Q15" t="n">
-        <v>1669.063976078264</v>
+        <v>1774.51947636317</v>
       </c>
       <c r="R15" t="n">
         <v>1815.43175696209</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.85323107784</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="C16" t="n">
-        <v>781.85323107784</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="D16" t="n">
-        <v>618.5364582046107</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="E16" t="n">
-        <v>452.3282523574642</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="F16" t="n">
-        <v>280.4664781320246</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G16" t="n">
-        <v>115.0960436647958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H16" t="n">
-        <v>115.0960436647958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I16" t="n">
-        <v>41.98800785131961</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="J16" t="n">
-        <v>160.9100844170325</v>
+        <v>82.98836776881163</v>
       </c>
       <c r="K16" t="n">
-        <v>241.1046668142445</v>
+        <v>163.1829501660236</v>
       </c>
       <c r="L16" t="n">
-        <v>393.687641896684</v>
+        <v>647.0529913238606</v>
       </c>
       <c r="M16" t="n">
-        <v>913.2892390567641</v>
+        <v>1166.654588483941</v>
       </c>
       <c r="N16" t="n">
-        <v>1025.712181833545</v>
+        <v>1677.110454102601</v>
       </c>
       <c r="O16" t="n">
-        <v>1503.954413022565</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P16" t="n">
-        <v>1899.642306432964</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q16" t="n">
         <v>2099.40039256598</v>
@@ -5463,25 +5463,25 @@
         <v>2092.223627342374</v>
       </c>
       <c r="S16" t="n">
-        <v>2092.223627342374</v>
+        <v>1949.173803387035</v>
       </c>
       <c r="T16" t="n">
-        <v>2092.223627342374</v>
+        <v>1709.622378904875</v>
       </c>
       <c r="U16" t="n">
-        <v>1812.087535310235</v>
+        <v>1429.486286872736</v>
       </c>
       <c r="V16" t="n">
-        <v>1530.376067918264</v>
+        <v>1147.774819480765</v>
       </c>
       <c r="W16" t="n">
-        <v>1255.523664090777</v>
+        <v>872.9224156532777</v>
       </c>
       <c r="X16" t="n">
-        <v>1012.959767536582</v>
+        <v>630.3585190990827</v>
       </c>
       <c r="Y16" t="n">
-        <v>786.6169992263241</v>
+        <v>404.0157507888248</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>890.4048104769191</v>
+        <v>469.711583586614</v>
       </c>
       <c r="C17" t="n">
-        <v>890.4048104769191</v>
+        <v>467.964947703462</v>
       </c>
       <c r="D17" t="n">
-        <v>467.1121896619194</v>
+        <v>467.964947703462</v>
       </c>
       <c r="E17" t="n">
-        <v>467.1121896619194</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="F17" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G17" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H17" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I17" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387547</v>
       </c>
       <c r="J17" t="n">
         <v>217.7424336056674</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7352879792934</v>
+        <v>428.7352879792933</v>
       </c>
       <c r="L17" t="n">
-        <v>696.4871173961205</v>
+        <v>696.4871173961203</v>
       </c>
       <c r="M17" t="n">
-        <v>999.5589014613563</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N17" t="n">
         <v>1308.284447706123</v>
@@ -5533,34 +5533,34 @@
         <v>1597.63824664654</v>
       </c>
       <c r="P17" t="n">
-        <v>1838.98860696587</v>
+        <v>1838.988606965869</v>
       </c>
       <c r="Q17" t="n">
-        <v>2012.404604961348</v>
+        <v>2012.404604961347</v>
       </c>
       <c r="R17" t="n">
-        <v>2099.400392565981</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S17" t="n">
-        <v>2099.400392565981</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="T17" t="n">
-        <v>2099.400392565981</v>
+        <v>1887.126417349635</v>
       </c>
       <c r="U17" t="n">
-        <v>1841.203593421473</v>
+        <v>1628.929618205127</v>
       </c>
       <c r="V17" t="n">
-        <v>1483.714178547722</v>
+        <v>1271.440203331377</v>
       </c>
       <c r="W17" t="n">
-        <v>1295.742080522029</v>
+        <v>875.0488536317237</v>
       </c>
       <c r="X17" t="n">
-        <v>1295.742080522029</v>
+        <v>875.0488536317237</v>
       </c>
       <c r="Y17" t="n">
-        <v>890.4048104769191</v>
+        <v>469.711583586614</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>178.1476225790692</v>
       </c>
       <c r="G18" t="n">
-        <v>85.15130637965791</v>
+        <v>85.15130637965788</v>
       </c>
       <c r="H18" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I18" t="n">
         <v>85.11814161381852</v>
       </c>
       <c r="J18" t="n">
-        <v>428.6498350246929</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K18" t="n">
-        <v>573.8324382182552</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L18" t="n">
-        <v>776.575777795762</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.313183375171</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N18" t="n">
-        <v>1264.737129518161</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O18" t="n">
-        <v>1488.38578996188</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P18" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q18" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R18" t="n">
         <v>1815.43175696209</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>428.5572182458497</v>
+        <v>1003.613433841861</v>
       </c>
       <c r="C19" t="n">
-        <v>256.5846551247657</v>
+        <v>844.659359544471</v>
       </c>
       <c r="D19" t="n">
-        <v>93.26788225153643</v>
+        <v>681.3425866712417</v>
       </c>
       <c r="E19" t="n">
-        <v>93.26788225153643</v>
+        <v>515.1343808240953</v>
       </c>
       <c r="F19" t="n">
-        <v>41.98800785131962</v>
+        <v>343.2726065986557</v>
       </c>
       <c r="G19" t="n">
-        <v>41.98800785131962</v>
+        <v>177.9021721314269</v>
       </c>
       <c r="H19" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I19" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="J19" t="n">
-        <v>82.98836776881164</v>
+        <v>82.98836776881163</v>
       </c>
       <c r="K19" t="n">
-        <v>410.4655592800457</v>
+        <v>163.1829501660236</v>
       </c>
       <c r="L19" t="n">
-        <v>894.3356004378827</v>
+        <v>647.0529913238606</v>
       </c>
       <c r="M19" t="n">
-        <v>1413.937197597963</v>
+        <v>760.9062624538216</v>
       </c>
       <c r="N19" t="n">
-        <v>1526.360140374743</v>
+        <v>1271.362128072482</v>
       </c>
       <c r="O19" t="n">
-        <v>1655.327910400465</v>
+        <v>1749.604359261503</v>
       </c>
       <c r="P19" t="n">
         <v>2051.015803810863</v>
       </c>
       <c r="Q19" t="n">
-        <v>2099.400392565981</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="R19" t="n">
-        <v>2092.223627342375</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="S19" t="n">
-        <v>1937.538471245868</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="T19" t="n">
-        <v>1697.987046763707</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="U19" t="n">
-        <v>1417.850954731568</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="V19" t="n">
-        <v>1136.139487339597</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="W19" t="n">
-        <v>861.2870835121103</v>
+        <v>1662.68606741838</v>
       </c>
       <c r="X19" t="n">
-        <v>618.7231869579153</v>
+        <v>1420.122170864185</v>
       </c>
       <c r="Y19" t="n">
-        <v>618.7231869579153</v>
+        <v>1193.779402553927</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>395.052359436913</v>
+        <v>894.0129196486193</v>
       </c>
       <c r="C20" t="n">
-        <v>395.052359436913</v>
+        <v>467.1121896619194</v>
       </c>
       <c r="D20" t="n">
-        <v>395.052359436913</v>
+        <v>467.1121896619194</v>
       </c>
       <c r="E20" t="n">
-        <v>395.052359436913</v>
+        <v>467.1121896619194</v>
       </c>
       <c r="F20" t="n">
         <v>41.9880078513196</v>
@@ -5749,16 +5749,16 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I20" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387527</v>
       </c>
       <c r="J20" t="n">
-        <v>217.7424336056674</v>
+        <v>217.7424336056675</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7352879792933</v>
+        <v>428.7352879792936</v>
       </c>
       <c r="L20" t="n">
-        <v>696.4871173961204</v>
+        <v>696.4871173961203</v>
       </c>
       <c r="M20" t="n">
         <v>999.5589014613558</v>
@@ -5788,16 +5788,16 @@
         <v>1569.599043188026</v>
       </c>
       <c r="V20" t="n">
-        <v>1212.109628314275</v>
+        <v>1569.599043188026</v>
       </c>
       <c r="W20" t="n">
-        <v>1212.109628314275</v>
+        <v>1173.207693488373</v>
       </c>
       <c r="X20" t="n">
-        <v>800.3896294820227</v>
+        <v>894.0129196486193</v>
       </c>
       <c r="Y20" t="n">
-        <v>395.052359436913</v>
+        <v>894.0129196486193</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I21" t="n">
-        <v>61.66083576940667</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J21" t="n">
-        <v>139.1740587367884</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K21" t="n">
-        <v>284.3566619303507</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L21" t="n">
-        <v>487.1000015078574</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M21" t="n">
-        <v>726.837407087266</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.439004247346</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O21" t="n">
-        <v>1470.087664691065</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P21" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R21" t="n">
         <v>1815.43175696209</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>543.4855496927794</v>
+        <v>542.5369894172172</v>
       </c>
       <c r="C22" t="n">
-        <v>371.5129865716954</v>
+        <v>542.5369894172172</v>
       </c>
       <c r="D22" t="n">
-        <v>208.196213698466</v>
+        <v>379.2202165439879</v>
       </c>
       <c r="E22" t="n">
-        <v>41.9880078513196</v>
+        <v>379.2202165439879</v>
       </c>
       <c r="F22" t="n">
-        <v>41.9880078513196</v>
+        <v>207.3584423185484</v>
       </c>
       <c r="G22" t="n">
         <v>41.9880078513196</v>
@@ -5910,19 +5910,19 @@
         <v>41.9880078513196</v>
       </c>
       <c r="J22" t="n">
-        <v>160.9100844170325</v>
+        <v>82.98836776881163</v>
       </c>
       <c r="K22" t="n">
-        <v>241.1046668142445</v>
+        <v>287.51992504205</v>
       </c>
       <c r="L22" t="n">
-        <v>724.9747079720815</v>
+        <v>771.3899661998871</v>
       </c>
       <c r="M22" t="n">
-        <v>838.8279791020425</v>
+        <v>1290.991563359967</v>
       </c>
       <c r="N22" t="n">
-        <v>1349.283844720703</v>
+        <v>1403.414506136748</v>
       </c>
       <c r="O22" t="n">
         <v>1503.954413022565</v>
@@ -5943,19 +5943,19 @@
         <v>1697.987046763707</v>
       </c>
       <c r="U22" t="n">
-        <v>1417.850954731568</v>
+        <v>1476.462026821223</v>
       </c>
       <c r="V22" t="n">
-        <v>1136.139487339596</v>
+        <v>1476.462026821223</v>
       </c>
       <c r="W22" t="n">
-        <v>976.21541495904</v>
+        <v>1201.609622993736</v>
       </c>
       <c r="X22" t="n">
-        <v>733.6515184048451</v>
+        <v>959.0457264395409</v>
       </c>
       <c r="Y22" t="n">
-        <v>733.6515184048451</v>
+        <v>732.7029581292829</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>395.0523594369139</v>
+        <v>892.1813586530193</v>
       </c>
       <c r="C23" t="n">
-        <v>395.0523594369139</v>
+        <v>465.2806286663193</v>
       </c>
       <c r="D23" t="n">
-        <v>395.0523594369139</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="E23" t="n">
-        <v>395.0523594369139</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="F23" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G23" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H23" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I23" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387536</v>
       </c>
       <c r="J23" t="n">
-        <v>217.7424336056674</v>
+        <v>217.7424336056675</v>
       </c>
       <c r="K23" t="n">
         <v>428.7352879792934</v>
@@ -5998,43 +5998,43 @@
         <v>696.4871173961204</v>
       </c>
       <c r="M23" t="n">
-        <v>999.5589014613563</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N23" t="n">
         <v>1308.284447706123</v>
       </c>
       <c r="O23" t="n">
-        <v>1597.63824664654</v>
+        <v>1597.638246646539</v>
       </c>
       <c r="P23" t="n">
-        <v>1838.98860696587</v>
+        <v>1838.988606965869</v>
       </c>
       <c r="Q23" t="n">
-        <v>2012.404604961348</v>
+        <v>2012.404604961347</v>
       </c>
       <c r="R23" t="n">
-        <v>2099.400392565981</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S23" t="n">
-        <v>2040.069817548879</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="T23" t="n">
-        <v>1827.795842332535</v>
+        <v>1904.258922370931</v>
       </c>
       <c r="U23" t="n">
-        <v>1569.599043188027</v>
+        <v>1646.062123226423</v>
       </c>
       <c r="V23" t="n">
-        <v>1212.109628314276</v>
+        <v>1288.572708352672</v>
       </c>
       <c r="W23" t="n">
-        <v>1212.109628314276</v>
+        <v>892.1813586530193</v>
       </c>
       <c r="X23" t="n">
-        <v>800.3896294820236</v>
+        <v>892.1813586530193</v>
       </c>
       <c r="Y23" t="n">
-        <v>395.0523594369139</v>
+        <v>892.1813586530193</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>178.1476225790692</v>
       </c>
       <c r="G24" t="n">
-        <v>85.15130637965791</v>
+        <v>85.15130637965788</v>
       </c>
       <c r="H24" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I24" t="n">
-        <v>61.66083576940669</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J24" t="n">
-        <v>428.6498350246929</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K24" t="n">
-        <v>573.8324382182552</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L24" t="n">
-        <v>776.575777795762</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M24" t="n">
-        <v>1016.313183375171</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N24" t="n">
-        <v>1264.737129518161</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O24" t="n">
-        <v>1488.38578996188</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P24" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q24" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R24" t="n">
         <v>1815.43175696209</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>428.5572182458497</v>
+        <v>448.9426396413573</v>
       </c>
       <c r="C25" t="n">
-        <v>428.5572182458497</v>
+        <v>380.0579879239056</v>
       </c>
       <c r="D25" t="n">
-        <v>379.220216543988</v>
+        <v>380.0579879239056</v>
       </c>
       <c r="E25" t="n">
-        <v>379.220216543988</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="F25" t="n">
-        <v>207.3584423185484</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G25" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H25" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I25" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="J25" t="n">
-        <v>160.9100844170325</v>
+        <v>82.98836776881163</v>
       </c>
       <c r="K25" t="n">
-        <v>241.1046668142445</v>
+        <v>163.1829501660236</v>
       </c>
       <c r="L25" t="n">
-        <v>401.4030450849235</v>
+        <v>308.4109236281117</v>
       </c>
       <c r="M25" t="n">
-        <v>515.2563162148845</v>
+        <v>828.0125207881918</v>
       </c>
       <c r="N25" t="n">
-        <v>1025.712181833545</v>
+        <v>1338.468386406852</v>
       </c>
       <c r="O25" t="n">
-        <v>1503.954413022566</v>
+        <v>1816.710617595873</v>
       </c>
       <c r="P25" t="n">
         <v>1899.642306432964</v>
       </c>
       <c r="Q25" t="n">
-        <v>2099.400392565981</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="R25" t="n">
-        <v>2092.223627342375</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S25" t="n">
-        <v>1937.538471245868</v>
+        <v>1944.715236469473</v>
       </c>
       <c r="T25" t="n">
-        <v>1697.987046763707</v>
+        <v>1944.715236469473</v>
       </c>
       <c r="U25" t="n">
-        <v>1417.850954731568</v>
+        <v>1664.579144437334</v>
       </c>
       <c r="V25" t="n">
-        <v>1136.139487339597</v>
+        <v>1382.867677045363</v>
       </c>
       <c r="W25" t="n">
-        <v>861.2870835121103</v>
+        <v>1108.015273217876</v>
       </c>
       <c r="X25" t="n">
-        <v>618.7231869579153</v>
+        <v>865.4513766636809</v>
       </c>
       <c r="Y25" t="n">
-        <v>618.7231869579153</v>
+        <v>639.1086083534229</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>803.164184379986</v>
+        <v>1318.158298505162</v>
       </c>
       <c r="C26" t="n">
-        <v>803.164184379986</v>
+        <v>891.2575685184618</v>
       </c>
       <c r="D26" t="n">
-        <v>379.8715635649862</v>
+        <v>467.964947703462</v>
       </c>
       <c r="E26" t="n">
-        <v>379.8715635649862</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="F26" t="n">
-        <v>379.8715635649862</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G26" t="n">
-        <v>319.6158027422738</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H26" t="n">
         <v>41.9880078513196</v>
@@ -6226,25 +6226,25 @@
         <v>82.46363936387525</v>
       </c>
       <c r="J26" t="n">
-        <v>217.7424336056674</v>
+        <v>217.7424336056672</v>
       </c>
       <c r="K26" t="n">
-        <v>428.7352879792934</v>
+        <v>428.7352879792936</v>
       </c>
       <c r="L26" t="n">
-        <v>696.4871173961203</v>
+        <v>696.4871173961205</v>
       </c>
       <c r="M26" t="n">
-        <v>999.5589014613558</v>
+        <v>999.5589014613562</v>
       </c>
       <c r="N26" t="n">
         <v>1308.284447706123</v>
       </c>
       <c r="O26" t="n">
-        <v>1597.638246646539</v>
+        <v>1597.63824664654</v>
       </c>
       <c r="P26" t="n">
-        <v>1838.988606965869</v>
+        <v>1838.98860696587</v>
       </c>
       <c r="Q26" t="n">
         <v>2012.404604961347</v>
@@ -6253,25 +6253,25 @@
         <v>2099.40039256598</v>
       </c>
       <c r="S26" t="n">
-        <v>2040.069817548879</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="T26" t="n">
-        <v>2040.069817548879</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="U26" t="n">
-        <v>2040.069817548879</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="V26" t="n">
-        <v>2040.069817548879</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="W26" t="n">
-        <v>2040.069817548879</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="X26" t="n">
-        <v>1628.349818716626</v>
+        <v>1687.680393733727</v>
       </c>
       <c r="Y26" t="n">
-        <v>1223.012548671516</v>
+        <v>1687.680393733727</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I27" t="n">
-        <v>61.66083576940667</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J27" t="n">
-        <v>139.1740587367884</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K27" t="n">
-        <v>284.3566619303507</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L27" t="n">
-        <v>487.1000015078574</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M27" t="n">
-        <v>726.837407087266</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N27" t="n">
-        <v>975.2613532302563</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O27" t="n">
-        <v>1198.910013673976</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P27" t="n">
         <v>1559.286433632724</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>371.5129865716954</v>
+        <v>477.0668537630779</v>
       </c>
       <c r="C28" t="n">
-        <v>371.5129865716954</v>
+        <v>305.0942906419939</v>
       </c>
       <c r="D28" t="n">
-        <v>208.196213698466</v>
+        <v>305.0942906419939</v>
       </c>
       <c r="E28" t="n">
-        <v>41.9880078513196</v>
+        <v>305.0942906419939</v>
       </c>
       <c r="F28" t="n">
-        <v>41.9880078513196</v>
+        <v>133.2325164165543</v>
       </c>
       <c r="G28" t="n">
-        <v>41.9880078513196</v>
+        <v>133.2325164165543</v>
       </c>
       <c r="H28" t="n">
-        <v>41.9880078513196</v>
+        <v>115.0960436647958</v>
       </c>
       <c r="I28" t="n">
         <v>41.9880078513196</v>
       </c>
       <c r="J28" t="n">
-        <v>160.9100844170325</v>
+        <v>82.98836776881163</v>
       </c>
       <c r="K28" t="n">
-        <v>241.1046668142445</v>
+        <v>163.1829501660236</v>
       </c>
       <c r="L28" t="n">
-        <v>348.5858143809166</v>
+        <v>647.0529913238606</v>
       </c>
       <c r="M28" t="n">
-        <v>868.1874115409967</v>
+        <v>1166.654588483941</v>
       </c>
       <c r="N28" t="n">
-        <v>1378.643277159657</v>
+        <v>1677.110454102601</v>
       </c>
       <c r="O28" t="n">
-        <v>1503.954413022565</v>
+        <v>1816.710617595873</v>
       </c>
       <c r="P28" t="n">
         <v>1899.642306432964</v>
@@ -6423,13 +6423,13 @@
         <v>1136.139487339596</v>
       </c>
       <c r="W28" t="n">
-        <v>861.2870835121093</v>
+        <v>1136.139487339596</v>
       </c>
       <c r="X28" t="n">
-        <v>788.021723594019</v>
+        <v>893.5755907854015</v>
       </c>
       <c r="Y28" t="n">
-        <v>561.6789552837611</v>
+        <v>667.2328224751435</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1297.228361862216</v>
+        <v>1595.786093396116</v>
       </c>
       <c r="C29" t="n">
-        <v>870.3276318755161</v>
+        <v>1168.885363409416</v>
       </c>
       <c r="D29" t="n">
-        <v>870.3276318755161</v>
+        <v>745.5927425944162</v>
       </c>
       <c r="E29" t="n">
-        <v>444.3506920233736</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="F29" t="n">
-        <v>444.3506920233736</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="G29" t="n">
-        <v>41.98800785131962</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="H29" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I29" t="n">
         <v>82.46363936387525</v>
@@ -6469,46 +6469,46 @@
         <v>428.7352879792934</v>
       </c>
       <c r="L29" t="n">
-        <v>696.4871173961204</v>
+        <v>696.4871173961203</v>
       </c>
       <c r="M29" t="n">
-        <v>999.5589014613563</v>
+        <v>999.558901461356</v>
       </c>
       <c r="N29" t="n">
         <v>1308.284447706123</v>
       </c>
       <c r="O29" t="n">
-        <v>1597.63824664654</v>
+        <v>1597.638246646539</v>
       </c>
       <c r="P29" t="n">
-        <v>1838.98860696587</v>
+        <v>1838.988606965869</v>
       </c>
       <c r="Q29" t="n">
-        <v>2012.404604961348</v>
+        <v>2012.404604961347</v>
       </c>
       <c r="R29" t="n">
-        <v>2099.400392565981</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S29" t="n">
-        <v>2099.400392565981</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T29" t="n">
-        <v>2099.400392565981</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="U29" t="n">
-        <v>1841.203593421473</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="V29" t="n">
-        <v>1841.203593421473</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="W29" t="n">
-        <v>1841.203593421473</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="X29" t="n">
-        <v>1429.48359458922</v>
+        <v>1628.349818716626</v>
       </c>
       <c r="Y29" t="n">
-        <v>1429.48359458922</v>
+        <v>1628.349818716626</v>
       </c>
     </row>
     <row r="30">
@@ -6533,31 +6533,31 @@
         <v>178.1476225790692</v>
       </c>
       <c r="G30" t="n">
-        <v>85.15130637965791</v>
+        <v>85.15130637965788</v>
       </c>
       <c r="H30" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I30" t="n">
-        <v>61.66083576940669</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J30" t="n">
-        <v>139.1740587367884</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K30" t="n">
-        <v>284.3566619303507</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L30" t="n">
-        <v>487.1000015078574</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M30" t="n">
-        <v>726.837407087266</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N30" t="n">
-        <v>975.2613532302563</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O30" t="n">
-        <v>1198.910013673976</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P30" t="n">
         <v>1559.286433632724</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>631.9318431298176</v>
+        <v>918.747165456208</v>
       </c>
       <c r="C31" t="n">
-        <v>459.9592800087336</v>
+        <v>746.774602335124</v>
       </c>
       <c r="D31" t="n">
-        <v>296.6425071355043</v>
+        <v>583.4578294618947</v>
       </c>
       <c r="E31" t="n">
-        <v>130.4343012883578</v>
+        <v>417.2496236147482</v>
       </c>
       <c r="F31" t="n">
-        <v>41.98800785131962</v>
+        <v>245.3878493893086</v>
       </c>
       <c r="G31" t="n">
-        <v>41.98800785131962</v>
+        <v>80.01741492207984</v>
       </c>
       <c r="H31" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I31" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="J31" t="n">
-        <v>160.9100844170325</v>
+        <v>82.98836776881163</v>
       </c>
       <c r="K31" t="n">
-        <v>488.3872759282665</v>
+        <v>163.1829501660236</v>
       </c>
       <c r="L31" t="n">
-        <v>771.3899661998878</v>
+        <v>459.7844210060105</v>
       </c>
       <c r="M31" t="n">
-        <v>1290.991563359968</v>
+        <v>979.3860181660905</v>
       </c>
       <c r="N31" t="n">
-        <v>1403.414506136749</v>
+        <v>1489.841883784751</v>
       </c>
       <c r="O31" t="n">
-        <v>1503.954413022566</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P31" t="n">
-        <v>1899.642306432964</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q31" t="n">
-        <v>2099.400392565981</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="R31" t="n">
-        <v>2092.223627342375</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="S31" t="n">
-        <v>1937.538471245868</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="T31" t="n">
-        <v>1937.538471245868</v>
+        <v>1852.672202860213</v>
       </c>
       <c r="U31" t="n">
-        <v>1657.402379213729</v>
+        <v>1852.672202860213</v>
       </c>
       <c r="V31" t="n">
-        <v>1375.690911821757</v>
+        <v>1852.672202860213</v>
       </c>
       <c r="W31" t="n">
-        <v>1100.83850799427</v>
+        <v>1577.819799032726</v>
       </c>
       <c r="X31" t="n">
-        <v>858.2746114400755</v>
+        <v>1335.255902478532</v>
       </c>
       <c r="Y31" t="n">
-        <v>631.9318431298176</v>
+        <v>1108.913134168274</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1019.046333485511</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="C32" t="n">
-        <v>745.5927425944162</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="D32" t="n">
-        <v>745.5927425944162</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="E32" t="n">
-        <v>319.6158027422738</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="F32" t="n">
-        <v>319.6158027422738</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="G32" t="n">
-        <v>319.6158027422738</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H32" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I32" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387547</v>
       </c>
       <c r="J32" t="n">
         <v>217.7424336056674</v>
       </c>
       <c r="K32" t="n">
-        <v>428.7352879792934</v>
+        <v>428.7352879792933</v>
       </c>
       <c r="L32" t="n">
-        <v>696.4871173961205</v>
+        <v>696.4871173961203</v>
       </c>
       <c r="M32" t="n">
-        <v>999.5589014613563</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N32" t="n">
         <v>1308.284447706123</v>
@@ -6718,34 +6718,34 @@
         <v>1597.63824664654</v>
       </c>
       <c r="P32" t="n">
-        <v>1838.98860696587</v>
+        <v>1838.988606965869</v>
       </c>
       <c r="Q32" t="n">
-        <v>2012.404604961348</v>
+        <v>2012.404604961347</v>
       </c>
       <c r="R32" t="n">
-        <v>2099.400392565981</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S32" t="n">
         <v>2040.069817548879</v>
       </c>
       <c r="T32" t="n">
-        <v>2040.069817548879</v>
+        <v>1861.765525786395</v>
       </c>
       <c r="U32" t="n">
-        <v>1781.873018404372</v>
+        <v>1603.568726641887</v>
       </c>
       <c r="V32" t="n">
-        <v>1424.383603530621</v>
+        <v>1246.079311768136</v>
       </c>
       <c r="W32" t="n">
-        <v>1424.383603530621</v>
+        <v>849.6879620684833</v>
       </c>
       <c r="X32" t="n">
-        <v>1424.383603530621</v>
+        <v>849.6879620684833</v>
       </c>
       <c r="Y32" t="n">
-        <v>1019.046333485511</v>
+        <v>444.3506920233736</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>178.1476225790692</v>
       </c>
       <c r="G33" t="n">
-        <v>85.15130637965791</v>
+        <v>85.15130637965788</v>
       </c>
       <c r="H33" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I33" t="n">
-        <v>61.66083576940669</v>
+        <v>61.66083576940667</v>
       </c>
       <c r="J33" t="n">
         <v>139.1740587367884</v>
       </c>
       <c r="K33" t="n">
-        <v>284.3566619303507</v>
+        <v>573.8324382182552</v>
       </c>
       <c r="L33" t="n">
-        <v>487.1000015078574</v>
+        <v>776.575777795762</v>
       </c>
       <c r="M33" t="n">
-        <v>726.837407087266</v>
+        <v>1016.313183375171</v>
       </c>
       <c r="N33" t="n">
-        <v>975.2613532302563</v>
+        <v>1264.737129518161</v>
       </c>
       <c r="O33" t="n">
-        <v>1198.910013673976</v>
+        <v>1488.38578996188</v>
       </c>
       <c r="P33" t="n">
-        <v>1559.286433632724</v>
+        <v>1664.74193391763</v>
       </c>
       <c r="Q33" t="n">
-        <v>1669.063976078264</v>
+        <v>1774.51947636317</v>
       </c>
       <c r="R33" t="n">
         <v>1815.43175696209</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>205.3047807245489</v>
+        <v>356.8996060320978</v>
       </c>
       <c r="C34" t="n">
-        <v>205.3047807245489</v>
+        <v>184.9270429110138</v>
       </c>
       <c r="D34" t="n">
-        <v>41.98800785131962</v>
+        <v>184.9270429110138</v>
       </c>
       <c r="E34" t="n">
-        <v>41.98800785131962</v>
+        <v>184.9270429110138</v>
       </c>
       <c r="F34" t="n">
-        <v>41.98800785131962</v>
+        <v>184.9270429110138</v>
       </c>
       <c r="G34" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H34" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I34" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="J34" t="n">
-        <v>82.98836776881164</v>
+        <v>82.98836776881163</v>
       </c>
       <c r="K34" t="n">
-        <v>315.5659267689666</v>
+        <v>163.1829501660236</v>
       </c>
       <c r="L34" t="n">
-        <v>799.4359679268036</v>
+        <v>552.7765424628216</v>
       </c>
       <c r="M34" t="n">
-        <v>913.2892390567646</v>
+        <v>666.6298135927825</v>
       </c>
       <c r="N34" t="n">
-        <v>1025.712181833545</v>
+        <v>1177.085679211443</v>
       </c>
       <c r="O34" t="n">
-        <v>1503.954413022566</v>
+        <v>1655.327910400464</v>
       </c>
       <c r="P34" t="n">
-        <v>1899.642306432964</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q34" t="n">
-        <v>2099.400392565981</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="R34" t="n">
-        <v>2092.223627342375</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="S34" t="n">
-        <v>1937.538471245868</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="T34" t="n">
-        <v>1697.987046763707</v>
+        <v>1852.672202860213</v>
       </c>
       <c r="U34" t="n">
-        <v>1417.850954731568</v>
+        <v>1572.536110828074</v>
       </c>
       <c r="V34" t="n">
-        <v>1136.139487339597</v>
+        <v>1290.824643436103</v>
       </c>
       <c r="W34" t="n">
-        <v>861.2870835121103</v>
+        <v>1015.972239608616</v>
       </c>
       <c r="X34" t="n">
-        <v>618.7231869579153</v>
+        <v>773.4083430544214</v>
       </c>
       <c r="Y34" t="n">
-        <v>395.4707494366146</v>
+        <v>547.0655747441634</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1145.271107729327</v>
+        <v>1743.282480315761</v>
       </c>
       <c r="C35" t="n">
-        <v>1145.271107729327</v>
+        <v>1316.381750329062</v>
       </c>
       <c r="D35" t="n">
-        <v>721.9784869143278</v>
+        <v>893.0891295140618</v>
       </c>
       <c r="E35" t="n">
-        <v>721.9784869143278</v>
+        <v>467.1121896619194</v>
       </c>
       <c r="F35" t="n">
-        <v>721.9784869143278</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G35" t="n">
-        <v>319.6158027422738</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H35" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I35" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387547</v>
       </c>
       <c r="J35" t="n">
         <v>217.7424336056674</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7352879792934</v>
+        <v>428.7352879792933</v>
       </c>
       <c r="L35" t="n">
-        <v>696.4871173961205</v>
+        <v>696.4871173961203</v>
       </c>
       <c r="M35" t="n">
-        <v>999.5589014613563</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N35" t="n">
         <v>1308.284447706123</v>
@@ -6955,34 +6955,34 @@
         <v>1597.63824664654</v>
       </c>
       <c r="P35" t="n">
-        <v>1838.98860696587</v>
+        <v>1838.988606965869</v>
       </c>
       <c r="Q35" t="n">
-        <v>2012.404604961348</v>
+        <v>2012.404604961347</v>
       </c>
       <c r="R35" t="n">
-        <v>2099.400392565981</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S35" t="n">
-        <v>2099.400392565981</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="T35" t="n">
-        <v>2099.400392565981</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="U35" t="n">
-        <v>1914.480521435331</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="V35" t="n">
-        <v>1556.99110656158</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="W35" t="n">
-        <v>1556.99110656158</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="X35" t="n">
-        <v>1145.271107729327</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="Y35" t="n">
-        <v>1145.271107729327</v>
+        <v>2099.40039256598</v>
       </c>
     </row>
     <row r="36">
@@ -7007,13 +7007,13 @@
         <v>178.1476225790692</v>
       </c>
       <c r="G36" t="n">
-        <v>85.15130637965791</v>
+        <v>85.15130637965788</v>
       </c>
       <c r="H36" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I36" t="n">
-        <v>61.66083576940669</v>
+        <v>61.66083576940667</v>
       </c>
       <c r="J36" t="n">
         <v>428.6498350246929</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>489.527307191337</v>
+        <v>356.8996060320978</v>
       </c>
       <c r="C37" t="n">
-        <v>317.554744070253</v>
+        <v>184.9270429110138</v>
       </c>
       <c r="D37" t="n">
-        <v>317.554744070253</v>
+        <v>184.9270429110138</v>
       </c>
       <c r="E37" t="n">
-        <v>151.3465382231066</v>
+        <v>177.9021721314269</v>
       </c>
       <c r="F37" t="n">
-        <v>151.3465382231066</v>
+        <v>177.9021721314269</v>
       </c>
       <c r="G37" t="n">
-        <v>115.0960436647958</v>
+        <v>177.9021721314269</v>
       </c>
       <c r="H37" t="n">
-        <v>115.0960436647958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I37" t="n">
-        <v>41.98800785131962</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="J37" t="n">
-        <v>160.9100844170325</v>
+        <v>82.98836776881163</v>
       </c>
       <c r="K37" t="n">
-        <v>488.3872759282665</v>
+        <v>163.1829501660236</v>
       </c>
       <c r="L37" t="n">
-        <v>972.2573170861035</v>
+        <v>552.7765424628216</v>
       </c>
       <c r="M37" t="n">
-        <v>1086.110588216065</v>
+        <v>666.6298135927825</v>
       </c>
       <c r="N37" t="n">
-        <v>1596.566453834725</v>
+        <v>1177.085679211443</v>
       </c>
       <c r="O37" t="n">
-        <v>1968.084114973772</v>
+        <v>1655.327910400464</v>
       </c>
       <c r="P37" t="n">
         <v>2051.015803810863</v>
       </c>
       <c r="Q37" t="n">
-        <v>2099.400392565981</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="R37" t="n">
-        <v>2099.400392565981</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="S37" t="n">
-        <v>1944.715236469474</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.163811987314</v>
+        <v>1852.672202860213</v>
       </c>
       <c r="U37" t="n">
-        <v>1705.163811987314</v>
+        <v>1572.536110828074</v>
       </c>
       <c r="V37" t="n">
-        <v>1423.452344595343</v>
+        <v>1290.824643436103</v>
       </c>
       <c r="W37" t="n">
-        <v>1148.599940767856</v>
+        <v>1015.972239608616</v>
       </c>
       <c r="X37" t="n">
-        <v>906.0360442136606</v>
+        <v>773.4083430544214</v>
       </c>
       <c r="Y37" t="n">
-        <v>679.6932759034027</v>
+        <v>547.0655747441634</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>403.9982797823695</v>
+        <v>871.2514220100735</v>
       </c>
       <c r="C38" t="n">
-        <v>41.9880078513196</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="D38" t="n">
-        <v>41.9880078513196</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="E38" t="n">
-        <v>41.9880078513196</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="F38" t="n">
-        <v>41.9880078513196</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="G38" t="n">
         <v>41.9880078513196</v>
@@ -7171,19 +7171,19 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I38" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387536</v>
       </c>
       <c r="J38" t="n">
-        <v>217.7424336056674</v>
+        <v>217.7424336056675</v>
       </c>
       <c r="K38" t="n">
         <v>428.7352879792934</v>
       </c>
       <c r="L38" t="n">
-        <v>696.4871173961203</v>
+        <v>696.4871173961204</v>
       </c>
       <c r="M38" t="n">
-        <v>999.5589014613558</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N38" t="n">
         <v>1308.284447706123</v>
@@ -7204,22 +7204,22 @@
         <v>2040.069817548879</v>
       </c>
       <c r="T38" t="n">
-        <v>1827.795842332534</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="U38" t="n">
-        <v>1569.599043188026</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="V38" t="n">
-        <v>1212.109628314275</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="W38" t="n">
-        <v>815.7182786146222</v>
+        <v>1696.437056346713</v>
       </c>
       <c r="X38" t="n">
-        <v>403.9982797823695</v>
+        <v>1696.437056346713</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.9982797823695</v>
+        <v>1291.099786301604</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I39" t="n">
-        <v>61.66083576940667</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J39" t="n">
-        <v>139.1740587367884</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K39" t="n">
-        <v>284.3566619303507</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L39" t="n">
-        <v>487.1000015078574</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M39" t="n">
-        <v>726.837407087266</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N39" t="n">
-        <v>975.2613532302563</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O39" t="n">
-        <v>1488.38578996188</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P39" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R39" t="n">
         <v>1815.43175696209</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>549.1391180710725</v>
+        <v>917.8781842535916</v>
       </c>
       <c r="C40" t="n">
-        <v>377.1665549499885</v>
+        <v>745.9056211325076</v>
       </c>
       <c r="D40" t="n">
-        <v>213.8497820767592</v>
+        <v>582.5888482592783</v>
       </c>
       <c r="E40" t="n">
-        <v>213.8497820767592</v>
+        <v>416.3806424121319</v>
       </c>
       <c r="F40" t="n">
-        <v>41.9880078513196</v>
+        <v>416.3806424121319</v>
       </c>
       <c r="G40" t="n">
-        <v>41.9880078513196</v>
+        <v>251.0102079449031</v>
       </c>
       <c r="H40" t="n">
-        <v>41.9880078513196</v>
+        <v>115.0960436647958</v>
       </c>
       <c r="I40" t="n">
         <v>41.9880078513196</v>
@@ -7341,13 +7341,13 @@
         <v>972.2573170861035</v>
       </c>
       <c r="M40" t="n">
-        <v>1086.110588216065</v>
+        <v>1086.110588216064</v>
       </c>
       <c r="N40" t="n">
-        <v>1338.468386406852</v>
+        <v>1403.414506136748</v>
       </c>
       <c r="O40" t="n">
-        <v>1816.710617595872</v>
+        <v>1503.954413022565</v>
       </c>
       <c r="P40" t="n">
         <v>1899.642306432964</v>
@@ -7362,22 +7362,22 @@
         <v>1937.538471245867</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.775622867049</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="U40" t="n">
-        <v>1764.775622867049</v>
+        <v>1657.402379213728</v>
       </c>
       <c r="V40" t="n">
-        <v>1483.064155475078</v>
+        <v>1375.690911821757</v>
       </c>
       <c r="W40" t="n">
-        <v>1208.211751647591</v>
+        <v>1350.608049519852</v>
       </c>
       <c r="X40" t="n">
-        <v>965.6478550933962</v>
+        <v>1108.044152965657</v>
       </c>
       <c r="Y40" t="n">
-        <v>739.3050867831382</v>
+        <v>1108.044152965657</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1319.989859500762</v>
+        <v>1223.012548671516</v>
       </c>
       <c r="C41" t="n">
-        <v>893.0891295140618</v>
+        <v>1223.012548671516</v>
       </c>
       <c r="D41" t="n">
-        <v>893.0891295140618</v>
+        <v>1223.012548671516</v>
       </c>
       <c r="E41" t="n">
-        <v>467.1121896619194</v>
+        <v>797.035608819374</v>
       </c>
       <c r="F41" t="n">
-        <v>41.98800785131961</v>
+        <v>371.9114270087742</v>
       </c>
       <c r="G41" t="n">
         <v>41.98800785131961</v>
@@ -7408,19 +7408,19 @@
         <v>41.98800785131961</v>
       </c>
       <c r="I41" t="n">
-        <v>82.46363936387527</v>
+        <v>82.46363936387536</v>
       </c>
       <c r="J41" t="n">
         <v>217.7424336056675</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7352879792934</v>
+        <v>428.7352879792935</v>
       </c>
       <c r="L41" t="n">
-        <v>696.4871173961204</v>
+        <v>696.4871173961205</v>
       </c>
       <c r="M41" t="n">
-        <v>999.5589014613562</v>
+        <v>999.5589014613561</v>
       </c>
       <c r="N41" t="n">
         <v>1308.284447706123</v>
@@ -7441,22 +7441,22 @@
         <v>2040.069817548879</v>
       </c>
       <c r="T41" t="n">
-        <v>1827.795842332534</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="U41" t="n">
-        <v>1827.795842332534</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="V41" t="n">
-        <v>1827.795842332534</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="W41" t="n">
-        <v>1827.795842332534</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="X41" t="n">
-        <v>1725.327129545871</v>
+        <v>1628.349818716626</v>
       </c>
       <c r="Y41" t="n">
-        <v>1319.989859500762</v>
+        <v>1223.012548671516</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>41.98800785131961</v>
       </c>
       <c r="I42" t="n">
-        <v>61.66083576940669</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J42" t="n">
-        <v>139.1740587367884</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K42" t="n">
-        <v>284.3566619303507</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L42" t="n">
-        <v>487.1000015078574</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M42" t="n">
-        <v>726.837407087266</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.439004247346</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O42" t="n">
-        <v>1470.087664691065</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P42" t="n">
-        <v>1646.443808646815</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q42" t="n">
-        <v>1756.221351092355</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R42" t="n">
         <v>1815.43175696209</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1078.517703913936</v>
+        <v>618.7231869579149</v>
       </c>
       <c r="C43" t="n">
-        <v>906.5451407928522</v>
+        <v>618.7231869579149</v>
       </c>
       <c r="D43" t="n">
-        <v>754.4506224847179</v>
+        <v>455.4064140846856</v>
       </c>
       <c r="E43" t="n">
-        <v>588.2424166375714</v>
+        <v>289.1982082375391</v>
       </c>
       <c r="F43" t="n">
-        <v>416.3806424121319</v>
+        <v>251.0102079449031</v>
       </c>
       <c r="G43" t="n">
         <v>251.0102079449031</v>
@@ -7575,46 +7575,46 @@
         <v>163.1829501660236</v>
       </c>
       <c r="L43" t="n">
-        <v>647.0529913238606</v>
+        <v>552.776542462822</v>
       </c>
       <c r="M43" t="n">
-        <v>1166.654588483941</v>
+        <v>666.629813592783</v>
       </c>
       <c r="N43" t="n">
-        <v>1279.077531260721</v>
+        <v>1177.085679211444</v>
       </c>
       <c r="O43" t="n">
-        <v>1757.319762449742</v>
+        <v>1655.327910400464</v>
       </c>
       <c r="P43" t="n">
-        <v>1899.642306432964</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q43" t="n">
         <v>2099.40039256598</v>
       </c>
       <c r="R43" t="n">
-        <v>2099.40039256598</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="S43" t="n">
-        <v>2099.40039256598</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="T43" t="n">
-        <v>1859.84896808382</v>
+        <v>1697.987046763707</v>
       </c>
       <c r="U43" t="n">
-        <v>1579.712876051681</v>
+        <v>1417.850954731568</v>
       </c>
       <c r="V43" t="n">
-        <v>1579.712876051681</v>
+        <v>1136.139487339597</v>
       </c>
       <c r="W43" t="n">
-        <v>1304.860472224194</v>
+        <v>861.2870835121098</v>
       </c>
       <c r="X43" t="n">
-        <v>1304.860472224194</v>
+        <v>618.7231869579149</v>
       </c>
       <c r="Y43" t="n">
-        <v>1078.517703913936</v>
+        <v>618.7231869579149</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1574.003398711628</v>
+        <v>1208.501454425096</v>
       </c>
       <c r="C44" t="n">
-        <v>1147.102668724928</v>
+        <v>781.6007244383964</v>
       </c>
       <c r="D44" t="n">
-        <v>1147.102668724928</v>
+        <v>358.3081036233966</v>
       </c>
       <c r="E44" t="n">
-        <v>1147.102668724928</v>
+        <v>41.98800785131961</v>
       </c>
       <c r="F44" t="n">
-        <v>721.9784869143278</v>
+        <v>41.98800785131961</v>
       </c>
       <c r="G44" t="n">
-        <v>319.6158027422738</v>
+        <v>41.98800785131961</v>
       </c>
       <c r="H44" t="n">
         <v>41.98800785131961</v>
@@ -7657,7 +7657,7 @@
         <v>696.4871173961205</v>
       </c>
       <c r="M44" t="n">
-        <v>999.5589014613561</v>
+        <v>999.5589014613563</v>
       </c>
       <c r="N44" t="n">
         <v>1308.284447706123</v>
@@ -7678,22 +7678,22 @@
         <v>2040.069817548879</v>
       </c>
       <c r="T44" t="n">
-        <v>1827.795842332534</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="U44" t="n">
-        <v>1574.003398711628</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="V44" t="n">
-        <v>1574.003398711628</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="W44" t="n">
-        <v>1574.003398711628</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="X44" t="n">
-        <v>1574.003398711628</v>
+        <v>1628.349818716626</v>
       </c>
       <c r="Y44" t="n">
-        <v>1574.003398711628</v>
+        <v>1628.349818716626</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>881.8098841943287</v>
+        <v>597.841248590438</v>
       </c>
       <c r="C45" t="n">
-        <v>764.3039807118334</v>
+        <v>480.3353451079428</v>
       </c>
       <c r="D45" t="n">
-        <v>660.4640222271184</v>
+        <v>376.4953866232278</v>
       </c>
       <c r="E45" t="n">
-        <v>555.7620885000557</v>
+        <v>271.793452896165</v>
       </c>
       <c r="F45" t="n">
-        <v>462.1162581829599</v>
+        <v>178.1476225790692</v>
       </c>
       <c r="G45" t="n">
-        <v>369.1199419835486</v>
+        <v>85.1513063796579</v>
       </c>
       <c r="H45" t="n">
-        <v>325.9566434552103</v>
+        <v>41.98800785131961</v>
       </c>
       <c r="I45" t="n">
-        <v>345.6294713732973</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J45" t="n">
-        <v>423.142694340679</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K45" t="n">
-        <v>568.3252975342414</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.544413399653</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M45" t="n">
-        <v>1300.281818979062</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N45" t="n">
-        <v>1548.705765122052</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O45" t="n">
-        <v>1772.354425565771</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P45" t="n">
-        <v>1948.710569521521</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.488111967061</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R45" t="n">
-        <v>2099.40039256598</v>
+        <v>1815.43175696209</v>
       </c>
       <c r="S45" t="n">
-        <v>2037.717918784867</v>
+        <v>1753.749283180976</v>
       </c>
       <c r="T45" t="n">
-        <v>1900.100271156067</v>
+        <v>1616.131635552176</v>
       </c>
       <c r="U45" t="n">
-        <v>1715.401644521953</v>
+        <v>1431.433008918062</v>
       </c>
       <c r="V45" t="n">
-        <v>1510.428505661219</v>
+        <v>1226.459870057328</v>
       </c>
       <c r="W45" t="n">
-        <v>1313.907128494436</v>
+        <v>1029.938492890545</v>
       </c>
       <c r="X45" t="n">
-        <v>1150.429782261099</v>
+        <v>866.4611466572084</v>
       </c>
       <c r="Y45" t="n">
-        <v>1010.736893614391</v>
+        <v>726.7682580105007</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>754.4506224847179</v>
+        <v>356.8996060320982</v>
       </c>
       <c r="C46" t="n">
-        <v>754.4506224847179</v>
+        <v>356.8996060320982</v>
       </c>
       <c r="D46" t="n">
-        <v>754.4506224847179</v>
+        <v>251.0102079449031</v>
       </c>
       <c r="E46" t="n">
-        <v>588.2424166375714</v>
+        <v>251.0102079449031</v>
       </c>
       <c r="F46" t="n">
-        <v>416.3806424121319</v>
+        <v>251.0102079449031</v>
       </c>
       <c r="G46" t="n">
         <v>251.0102079449031</v>
@@ -7806,19 +7806,19 @@
         <v>41.98800785131961</v>
       </c>
       <c r="J46" t="n">
-        <v>82.98836776881163</v>
+        <v>160.9100844170325</v>
       </c>
       <c r="K46" t="n">
-        <v>315.5659267689661</v>
+        <v>488.3872759282665</v>
       </c>
       <c r="L46" t="n">
-        <v>799.4359679268032</v>
+        <v>972.2573170861035</v>
       </c>
       <c r="M46" t="n">
-        <v>913.2892390567641</v>
+        <v>1290.991563359968</v>
       </c>
       <c r="N46" t="n">
-        <v>1025.712181833545</v>
+        <v>1403.414506136748</v>
       </c>
       <c r="O46" t="n">
         <v>1503.954413022565</v>
@@ -7833,25 +7833,25 @@
         <v>2092.223627342374</v>
       </c>
       <c r="S46" t="n">
-        <v>1937.538471245867</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="T46" t="n">
-        <v>1697.987046763707</v>
+        <v>1852.672202860214</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.357262014434</v>
+        <v>1572.536110828075</v>
       </c>
       <c r="V46" t="n">
-        <v>1255.645794622463</v>
+        <v>1290.824643436104</v>
       </c>
       <c r="W46" t="n">
-        <v>980.7933907949758</v>
+        <v>1015.972239608617</v>
       </c>
       <c r="X46" t="n">
-        <v>980.7933907949758</v>
+        <v>773.4083430544218</v>
       </c>
       <c r="Y46" t="n">
-        <v>754.4506224847179</v>
+        <v>547.0655747441639</v>
       </c>
     </row>
   </sheetData>
@@ -8218,7 +8218,7 @@
         <v>11.687419793854</v>
       </c>
       <c r="K5" t="n">
-        <v>9.188120483615119</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L5" t="n">
         <v>5.341568553442613</v>
@@ -8233,7 +8233,7 @@
         <v>2.188868639101635</v>
       </c>
       <c r="P5" t="n">
-        <v>7.531191812490526</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q5" t="n">
         <v>13.562754156455</v>
@@ -8315,7 +8315,7 @@
         <v>0.424509749335602</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.477581017613941</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R6" t="n">
         <v>16.73234637554063</v>
@@ -8376,7 +8376,7 @@
         <v>14.01088610452265</v>
       </c>
       <c r="K7" t="n">
-        <v>10.07631485409217</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L7" t="n">
         <v>7.985433933586291</v>
@@ -8774,13 +8774,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>18.48295481900456</v>
+        <v>292.3997740281864</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>273.9168192091818</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>124.2662062262511</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>409.8467939698176</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>205.6237822544085</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>292.3997740281865</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>185.8790666696958</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>45.5574015310782</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>409.8467939698174</v>
+        <v>409.8467939698173</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>192.3573272579323</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>268.7055257004977</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>409.8467939698174</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>28.71501327263039</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>220.6866219315845</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>162.1848183420071</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>273.9168192091815</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>18.48295481900482</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>125.5929039151782</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>409.8467939698173</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>54.67743577378226</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>292.3997740281864</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>53.35073808485549</v>
+        <v>38.12810696506671</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>409.8467939698173</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9813,7 +9813,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>185.8790666696957</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>409.8467939698172</v>
+        <v>409.8467939698173</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>25.02144341120228</v>
+        <v>39.4548046539942</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>185.8790666696957</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>177.2944875807568</v>
+        <v>191.0306295690048</v>
       </c>
       <c r="M31" t="n">
-        <v>409.8467939698176</v>
+        <v>409.8467939698173</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>292.3997740281864</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>185.8790666696957</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,16 +10509,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>153.9221985888312</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>284.9620653839655</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>292.3997740281864</v>
+        <v>292.3997740281865</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>284.9620653839655</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10758,10 +10758,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>273.7149032860906</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>292.3997740281864</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10992,13 +10992,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>141.3483388020269</v>
+        <v>206.9504799433363</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>162.1848183420071</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>273.9168192091817</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>18.48295481900495</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,22 +11223,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>284.962065383966</v>
       </c>
       <c r="M43" t="n">
-        <v>409.8467939698173</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>59.99076277386993</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>162.1848183420071</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>292.3997740281867</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,22 +11454,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>153.9221985888308</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>206.9504799433365</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
@@ -22798,7 +22798,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08674335225111918</v>
+        <v>0.08674335225113589</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>410.7056421424584</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -23266,10 +23266,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>192.7775538411024</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.73726926693029</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.1512354641813</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>188.9718726940869</v>
+        <v>259.5212445029578</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.73726926693029</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>32.68287890593467</v>
+        <v>317.7452450749637</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.5481785579457</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H16" t="n">
         <v>134.5550226373062</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>153.1383045355418</v>
+        <v>11.51897881975671</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1559102373387</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23734,16 +23734,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>420.9025531625124</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.3390573303334</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.73726926693029</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>206.3350591572199</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>12.88830393545686</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>119.3760808269705</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.3769554553414</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1559102373387</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3347311118176</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23980,7 +23980,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>71.33923192275631</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.3390573303334</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>131.1999727425743</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>134.5550226373062</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>58.02496136875865</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>113.7790481324613</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,16 +24208,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>71.3392319227554</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>398.3390573303334</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>16.96117997108266</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>102.057032289596</v>
       </c>
       <c r="D25" t="n">
-        <v>112.8399734596539</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H25" t="n">
         <v>134.5550226373062</v>
       </c>
       <c r="I25" t="n">
-        <v>72.3769554553414</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1559102373387</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>49.82300637233482</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>338.6858541158482</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T26" t="n">
         <v>210.1512354641813</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.7167301225565</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5550226373062</v>
+        <v>116.5999146130653</v>
       </c>
       <c r="I28" t="n">
-        <v>72.3769554553414</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>167.6055512697435</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>284.7172002488804</v>
+        <v>383.4117925813098</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H29" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.73726926693029</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.1512354641813</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>82.58132598051736</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5550226373062</v>
+        <v>96.90590963725356</v>
       </c>
       <c r="I31" t="n">
-        <v>72.3769554553414</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1559102373387</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3347311118176</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>151.9126677046487</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.1512354641813</v>
+        <v>33.62998661932244</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -25089,13 +25089,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7167301225565</v>
+        <v>22.20708541345925</v>
       </c>
       <c r="H34" t="n">
         <v>134.5550226373062</v>
       </c>
       <c r="I34" t="n">
-        <v>72.3769554553414</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.059427481067644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>63.09314752089841</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.73726926693029</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T35" t="n">
         <v>210.1512354641813</v>
       </c>
       <c r="U35" t="n">
-        <v>72.54415873371923</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25320,19 +25320,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>157.591501716884</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>127.8287405098288</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H37" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.10499757137017</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3347311118176</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>64.2415534750935</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25405,7 +25405,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>274.8515169420447</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>52.23100261251295</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.3769554553414</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>66.1206903423093</v>
+        <v>237.1559102373387</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3347311118176</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>247.2718461103267</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3390573303334</v>
+        <v>71.71487236445336</v>
       </c>
       <c r="H41" t="n">
         <v>274.8515169420447</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U41" t="n">
         <v>255.6148311530628</v>
@@ -25693,7 +25693,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>306.1587731851338</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>11.11003201944405</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>132.3370361934755</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.10499757137017</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>108.5602756392648</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U44" t="n">
-        <v>4.360311968365295</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25930,7 +25930,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>56.85310103817379</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>118.3112442100373</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378013.090477472</v>
+        <v>378013.0904774718</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>378013.0904774719</v>
+        <v>378013.0904774718</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>378013.0904774719</v>
+        <v>378013.0904774718</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>378013.0904774719</v>
+        <v>378013.0904774718</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>378013.0904774718</v>
+        <v>378013.0904774717</v>
       </c>
     </row>
     <row r="15">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>401640.8468620666</v>
+        <v>401640.8468620667</v>
       </c>
       <c r="C2" t="n">
-        <v>401641.6894811962</v>
+        <v>401641.6894811961</v>
       </c>
       <c r="D2" t="n">
-        <v>401641.6894811961</v>
+        <v>401641.689481196</v>
       </c>
       <c r="E2" t="n">
+        <v>236040.1479442941</v>
+      </c>
+      <c r="F2" t="n">
+        <v>236040.1479442942</v>
+      </c>
+      <c r="G2" t="n">
+        <v>236040.1479442942</v>
+      </c>
+      <c r="H2" t="n">
         <v>236040.1479442943</v>
       </c>
-      <c r="F2" t="n">
-        <v>236040.1479442943</v>
-      </c>
-      <c r="G2" t="n">
-        <v>236040.1479442944</v>
-      </c>
-      <c r="H2" t="n">
-        <v>236040.1479442944</v>
-      </c>
       <c r="I2" t="n">
-        <v>236040.1479442944</v>
+        <v>236040.1479442941</v>
       </c>
       <c r="J2" t="n">
         <v>236040.1479442942</v>
       </c>
       <c r="K2" t="n">
+        <v>236040.1479442942</v>
+      </c>
+      <c r="L2" t="n">
+        <v>236040.1479442942</v>
+      </c>
+      <c r="M2" t="n">
         <v>236040.1479442943</v>
-      </c>
-      <c r="L2" t="n">
-        <v>236040.1479442943</v>
-      </c>
-      <c r="M2" t="n">
-        <v>236040.1479442944</v>
       </c>
       <c r="N2" t="n">
         <v>236040.1479442942</v>
@@ -26355,7 +26355,7 @@
         <v>236040.1479442943</v>
       </c>
       <c r="P2" t="n">
-        <v>236040.1479442943</v>
+        <v>236040.1479442942</v>
       </c>
     </row>
     <row r="3">
@@ -26435,25 +26435,25 @@
         <v>24389.75028530119</v>
       </c>
       <c r="H4" t="n">
-        <v>24389.75028530118</v>
+        <v>24389.75028530119</v>
       </c>
       <c r="I4" t="n">
         <v>24389.7502853012</v>
       </c>
       <c r="J4" t="n">
-        <v>24389.75028530119</v>
+        <v>24389.7502853012</v>
       </c>
       <c r="K4" t="n">
         <v>24389.7502853012</v>
       </c>
       <c r="L4" t="n">
-        <v>24389.75028530119</v>
+        <v>24389.75028530118</v>
       </c>
       <c r="M4" t="n">
+        <v>24389.75028530118</v>
+      </c>
+      <c r="N4" t="n">
         <v>24389.7502853012</v>
-      </c>
-      <c r="N4" t="n">
-        <v>24389.75028530118</v>
       </c>
       <c r="O4" t="n">
         <v>24389.75028530119</v>
@@ -26478,31 +26478,31 @@
         <v>34760.56666652932</v>
       </c>
       <c r="E5" t="n">
-        <v>42521.11700888628</v>
+        <v>42521.11700888626</v>
       </c>
       <c r="F5" t="n">
-        <v>42521.11700888627</v>
+        <v>42521.11700888626</v>
       </c>
       <c r="G5" t="n">
-        <v>42521.11700888628</v>
+        <v>42521.11700888626</v>
       </c>
       <c r="H5" t="n">
         <v>42521.11700888626</v>
       </c>
       <c r="I5" t="n">
-        <v>42521.11700888628</v>
+        <v>42521.11700888626</v>
       </c>
       <c r="J5" t="n">
         <v>42521.11700888626</v>
       </c>
       <c r="K5" t="n">
-        <v>42521.11700888628</v>
+        <v>42521.11700888626</v>
       </c>
       <c r="L5" t="n">
-        <v>42521.11700888628</v>
+        <v>42521.11700888626</v>
       </c>
       <c r="M5" t="n">
-        <v>42521.11700888628</v>
+        <v>42521.11700888626</v>
       </c>
       <c r="N5" t="n">
         <v>42521.11700888626</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10119.90733587382</v>
+        <v>10098.23226178198</v>
       </c>
       <c r="C6" t="n">
-        <v>54105.47137652124</v>
+        <v>54083.79931178315</v>
       </c>
       <c r="D6" t="n">
-        <v>57530.87612926974</v>
+        <v>57509.20406453176</v>
       </c>
       <c r="E6" t="n">
-        <v>-336848.3399781318</v>
+        <v>-337461.4461197873</v>
       </c>
       <c r="F6" t="n">
-        <v>169129.2806501069</v>
+        <v>168516.1745084513</v>
       </c>
       <c r="G6" t="n">
-        <v>169129.2806501069</v>
+        <v>168516.1745084514</v>
       </c>
       <c r="H6" t="n">
-        <v>169129.2806501069</v>
+        <v>168516.1745084514</v>
       </c>
       <c r="I6" t="n">
-        <v>169129.2806501069</v>
+        <v>168516.1745084513</v>
       </c>
       <c r="J6" t="n">
-        <v>169129.2806501068</v>
+        <v>168516.1745084513</v>
       </c>
       <c r="K6" t="n">
-        <v>169129.2806501068</v>
+        <v>168516.1745084513</v>
       </c>
       <c r="L6" t="n">
-        <v>169129.2806501068</v>
+        <v>168516.1745084514</v>
       </c>
       <c r="M6" t="n">
-        <v>38334.53679285381</v>
+        <v>37721.43065119826</v>
       </c>
       <c r="N6" t="n">
-        <v>169129.2806501068</v>
+        <v>168516.1745084513</v>
       </c>
       <c r="O6" t="n">
-        <v>169129.2806501068</v>
+        <v>168516.1745084514</v>
       </c>
       <c r="P6" t="n">
-        <v>169129.2806501069</v>
+        <v>168516.1745084513</v>
       </c>
     </row>
   </sheetData>
@@ -26798,31 +26798,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>524.8500981414952</v>
+        <v>524.850098141495</v>
       </c>
       <c r="F4" t="n">
-        <v>524.8500981414951</v>
+        <v>524.850098141495</v>
       </c>
       <c r="G4" t="n">
-        <v>524.8500981414952</v>
+        <v>524.850098141495</v>
       </c>
       <c r="H4" t="n">
         <v>524.850098141495</v>
       </c>
       <c r="I4" t="n">
-        <v>524.8500981414952</v>
+        <v>524.850098141495</v>
       </c>
       <c r="J4" t="n">
         <v>524.850098141495</v>
       </c>
       <c r="K4" t="n">
-        <v>524.8500981414952</v>
+        <v>524.850098141495</v>
       </c>
       <c r="L4" t="n">
-        <v>524.8500981414952</v>
+        <v>524.850098141495</v>
       </c>
       <c r="M4" t="n">
-        <v>524.8500981414952</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N4" t="n">
         <v>524.850098141495</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>434.7368979520208</v>
+        <v>434.7368979520207</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>524.8500981414949</v>
+        <v>524.850098141495</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>524.8500981414949</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>524.8500981414949</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>0.208928434194701</v>
       </c>
       <c r="H5" t="n">
-        <v>2.139688326696482</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I5" t="n">
         <v>8.05471345929122</v>
@@ -31305,7 +31305,7 @@
         <v>35.20209071692246</v>
       </c>
       <c r="P5" t="n">
-        <v>30.04416999774077</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q5" t="n">
         <v>22.56192044814304</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1117865674089856</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H6" t="n">
         <v>1.079622901028888</v>
@@ -31387,7 +31387,7 @@
         <v>21.34633145549306</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.26945727136456</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R6" t="n">
         <v>6.940573018603515</v>
@@ -31439,7 +31439,7 @@
         <v>0.09371810296151657</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8332391336033026</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I7" t="n">
         <v>2.818358950879063</v>
@@ -31466,13 +31466,13 @@
         <v>11.33477856181833</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.84761314889572</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R7" t="n">
         <v>4.213906702251462</v>
       </c>
       <c r="S7" t="n">
-        <v>1.633250939792974</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T7" t="n">
         <v>0.4004318944719343</v>
@@ -31767,31 +31767,31 @@
         <v>248.8886961217042</v>
       </c>
       <c r="L11" t="n">
-        <v>308.7684357829533</v>
+        <v>308.7684357829532</v>
       </c>
       <c r="M11" t="n">
-        <v>343.5643781168417</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N11" t="n">
-        <v>349.123608940271</v>
+        <v>349.1236089402709</v>
       </c>
       <c r="O11" t="n">
         <v>329.6675239423035</v>
       </c>
       <c r="P11" t="n">
-        <v>281.3636045570294</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.292349347505</v>
+        <v>211.2923493475049</v>
       </c>
       <c r="R11" t="n">
-        <v>122.9071828287689</v>
+        <v>122.9071828287688</v>
       </c>
       <c r="S11" t="n">
         <v>44.5863519186607</v>
       </c>
       <c r="T11" t="n">
-        <v>8.56507978163191</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U11" t="n">
         <v>0.1565291564889897</v>
@@ -31837,10 +31837,10 @@
         <v>10.1106667622586</v>
       </c>
       <c r="I12" t="n">
-        <v>36.04393010160311</v>
+        <v>36.0439301016031</v>
       </c>
       <c r="J12" t="n">
-        <v>98.90729914887039</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K12" t="n">
         <v>169.0483279682448</v>
@@ -31855,7 +31855,7 @@
         <v>272.2763071458551</v>
       </c>
       <c r="O12" t="n">
-        <v>249.079627544161</v>
+        <v>249.0796275441609</v>
       </c>
       <c r="P12" t="n">
         <v>199.9083603520504</v>
@@ -31870,10 +31870,10 @@
         <v>19.44535592105593</v>
       </c>
       <c r="T12" t="n">
-        <v>4.2196651927864</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06887375178650278</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8776698861536851</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H13" t="n">
         <v>7.803283169620951</v>
@@ -31919,7 +31919,7 @@
         <v>26.39392712178537</v>
       </c>
       <c r="J13" t="n">
-        <v>62.05126095106554</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K13" t="n">
         <v>101.9692831367645</v>
@@ -31928,10 +31928,10 @@
         <v>130.4855756196124</v>
       </c>
       <c r="M13" t="n">
-        <v>137.5787440631636</v>
+        <v>137.5787440631635</v>
       </c>
       <c r="N13" t="n">
-        <v>134.3074290329545</v>
+        <v>134.3074290329544</v>
       </c>
       <c r="O13" t="n">
         <v>124.05464899925</v>
@@ -31940,7 +31940,7 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.49288473965086</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R13" t="n">
         <v>39.46322960832841</v>
@@ -31949,7 +31949,7 @@
         <v>15.29539247051467</v>
       </c>
       <c r="T13" t="n">
-        <v>3.75004405902029</v>
+        <v>3.750044059020289</v>
       </c>
       <c r="U13" t="n">
         <v>0.04787290288111015</v>
@@ -32004,31 +32004,31 @@
         <v>248.8886961217042</v>
       </c>
       <c r="L14" t="n">
-        <v>308.7684357829533</v>
+        <v>308.7684357829532</v>
       </c>
       <c r="M14" t="n">
-        <v>343.5643781168417</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N14" t="n">
-        <v>349.123608940271</v>
+        <v>349.1236089402709</v>
       </c>
       <c r="O14" t="n">
         <v>329.6675239423035</v>
       </c>
       <c r="P14" t="n">
-        <v>281.3636045570294</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.292349347505</v>
+        <v>211.2923493475049</v>
       </c>
       <c r="R14" t="n">
-        <v>122.9071828287689</v>
+        <v>122.9071828287688</v>
       </c>
       <c r="S14" t="n">
         <v>44.5863519186607</v>
       </c>
       <c r="T14" t="n">
-        <v>8.56507978163191</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U14" t="n">
         <v>0.1565291564889897</v>
@@ -32074,10 +32074,10 @@
         <v>10.1106667622586</v>
       </c>
       <c r="I15" t="n">
-        <v>36.04393010160311</v>
+        <v>36.0439301016031</v>
       </c>
       <c r="J15" t="n">
-        <v>98.90729914887039</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K15" t="n">
         <v>169.0483279682448</v>
@@ -32092,7 +32092,7 @@
         <v>272.2763071458551</v>
       </c>
       <c r="O15" t="n">
-        <v>249.079627544161</v>
+        <v>249.0796275441609</v>
       </c>
       <c r="P15" t="n">
         <v>199.9083603520504</v>
@@ -32107,10 +32107,10 @@
         <v>19.44535592105593</v>
       </c>
       <c r="T15" t="n">
-        <v>4.2196651927864</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06887375178650278</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8776698861536851</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H16" t="n">
         <v>7.803283169620951</v>
@@ -32156,7 +32156,7 @@
         <v>26.39392712178537</v>
       </c>
       <c r="J16" t="n">
-        <v>62.05126095106554</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K16" t="n">
         <v>101.9692831367645</v>
@@ -32165,10 +32165,10 @@
         <v>130.4855756196124</v>
       </c>
       <c r="M16" t="n">
-        <v>137.5787440631636</v>
+        <v>137.5787440631635</v>
       </c>
       <c r="N16" t="n">
-        <v>134.3074290329545</v>
+        <v>134.3074290329544</v>
       </c>
       <c r="O16" t="n">
         <v>124.05464899925</v>
@@ -32177,7 +32177,7 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.49288473965086</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R16" t="n">
         <v>39.46322960832841</v>
@@ -32186,7 +32186,7 @@
         <v>15.29539247051467</v>
       </c>
       <c r="T16" t="n">
-        <v>3.75004405902029</v>
+        <v>3.750044059020289</v>
       </c>
       <c r="U16" t="n">
         <v>0.04787290288111015</v>
@@ -32241,31 +32241,31 @@
         <v>248.8886961217042</v>
       </c>
       <c r="L17" t="n">
-        <v>308.7684357829533</v>
+        <v>308.7684357829532</v>
       </c>
       <c r="M17" t="n">
-        <v>343.5643781168417</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N17" t="n">
-        <v>349.123608940271</v>
+        <v>349.1236089402709</v>
       </c>
       <c r="O17" t="n">
         <v>329.6675239423035</v>
       </c>
       <c r="P17" t="n">
-        <v>281.3636045570294</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.292349347505</v>
+        <v>211.2923493475049</v>
       </c>
       <c r="R17" t="n">
-        <v>122.9071828287689</v>
+        <v>122.9071828287688</v>
       </c>
       <c r="S17" t="n">
         <v>44.5863519186607</v>
       </c>
       <c r="T17" t="n">
-        <v>8.56507978163191</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U17" t="n">
         <v>0.1565291564889897</v>
@@ -32311,10 +32311,10 @@
         <v>10.1106667622586</v>
       </c>
       <c r="I18" t="n">
-        <v>36.04393010160311</v>
+        <v>36.0439301016031</v>
       </c>
       <c r="J18" t="n">
-        <v>98.90729914887039</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K18" t="n">
         <v>169.0483279682448</v>
@@ -32329,7 +32329,7 @@
         <v>272.2763071458551</v>
       </c>
       <c r="O18" t="n">
-        <v>249.079627544161</v>
+        <v>249.0796275441609</v>
       </c>
       <c r="P18" t="n">
         <v>199.9083603520504</v>
@@ -32344,10 +32344,10 @@
         <v>19.44535592105593</v>
       </c>
       <c r="T18" t="n">
-        <v>4.2196651927864</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06887375178650278</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8776698861536851</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H19" t="n">
         <v>7.803283169620951</v>
@@ -32393,7 +32393,7 @@
         <v>26.39392712178537</v>
       </c>
       <c r="J19" t="n">
-        <v>62.05126095106554</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K19" t="n">
         <v>101.9692831367645</v>
@@ -32402,10 +32402,10 @@
         <v>130.4855756196124</v>
       </c>
       <c r="M19" t="n">
-        <v>137.5787440631636</v>
+        <v>137.5787440631635</v>
       </c>
       <c r="N19" t="n">
-        <v>134.3074290329545</v>
+        <v>134.3074290329544</v>
       </c>
       <c r="O19" t="n">
         <v>124.05464899925</v>
@@ -32414,7 +32414,7 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.49288473965086</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R19" t="n">
         <v>39.46322960832841</v>
@@ -32423,7 +32423,7 @@
         <v>15.29539247051467</v>
       </c>
       <c r="T19" t="n">
-        <v>3.75004405902029</v>
+        <v>3.750044059020289</v>
       </c>
       <c r="U19" t="n">
         <v>0.04787290288111015</v>
@@ -32715,31 +32715,31 @@
         <v>248.8886961217042</v>
       </c>
       <c r="L23" t="n">
-        <v>308.7684357829533</v>
+        <v>308.7684357829532</v>
       </c>
       <c r="M23" t="n">
-        <v>343.5643781168417</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N23" t="n">
-        <v>349.123608940271</v>
+        <v>349.1236089402709</v>
       </c>
       <c r="O23" t="n">
         <v>329.6675239423035</v>
       </c>
       <c r="P23" t="n">
-        <v>281.3636045570294</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.292349347505</v>
+        <v>211.2923493475049</v>
       </c>
       <c r="R23" t="n">
-        <v>122.9071828287689</v>
+        <v>122.9071828287688</v>
       </c>
       <c r="S23" t="n">
         <v>44.5863519186607</v>
       </c>
       <c r="T23" t="n">
-        <v>8.56507978163191</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U23" t="n">
         <v>0.1565291564889897</v>
@@ -32785,10 +32785,10 @@
         <v>10.1106667622586</v>
       </c>
       <c r="I24" t="n">
-        <v>36.04393010160311</v>
+        <v>36.0439301016031</v>
       </c>
       <c r="J24" t="n">
-        <v>98.90729914887039</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K24" t="n">
         <v>169.0483279682448</v>
@@ -32803,7 +32803,7 @@
         <v>272.2763071458551</v>
       </c>
       <c r="O24" t="n">
-        <v>249.079627544161</v>
+        <v>249.0796275441609</v>
       </c>
       <c r="P24" t="n">
         <v>199.9083603520504</v>
@@ -32818,10 +32818,10 @@
         <v>19.44535592105593</v>
       </c>
       <c r="T24" t="n">
-        <v>4.2196651927864</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06887375178650278</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8776698861536851</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H25" t="n">
         <v>7.803283169620951</v>
@@ -32867,7 +32867,7 @@
         <v>26.39392712178537</v>
       </c>
       <c r="J25" t="n">
-        <v>62.05126095106554</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K25" t="n">
         <v>101.9692831367645</v>
@@ -32876,10 +32876,10 @@
         <v>130.4855756196124</v>
       </c>
       <c r="M25" t="n">
-        <v>137.5787440631636</v>
+        <v>137.5787440631635</v>
       </c>
       <c r="N25" t="n">
-        <v>134.3074290329545</v>
+        <v>134.3074290329544</v>
       </c>
       <c r="O25" t="n">
         <v>124.05464899925</v>
@@ -32888,7 +32888,7 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.49288473965086</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R25" t="n">
         <v>39.46322960832841</v>
@@ -32897,7 +32897,7 @@
         <v>15.29539247051467</v>
       </c>
       <c r="T25" t="n">
-        <v>3.75004405902029</v>
+        <v>3.750044059020289</v>
       </c>
       <c r="U25" t="n">
         <v>0.04787290288111015</v>
@@ -32952,31 +32952,31 @@
         <v>248.8886961217042</v>
       </c>
       <c r="L26" t="n">
-        <v>308.7684357829533</v>
+        <v>308.7684357829532</v>
       </c>
       <c r="M26" t="n">
-        <v>343.5643781168417</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N26" t="n">
-        <v>349.123608940271</v>
+        <v>349.1236089402709</v>
       </c>
       <c r="O26" t="n">
         <v>329.6675239423035</v>
       </c>
       <c r="P26" t="n">
-        <v>281.3636045570294</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q26" t="n">
-        <v>211.292349347505</v>
+        <v>211.2923493475049</v>
       </c>
       <c r="R26" t="n">
-        <v>122.9071828287689</v>
+        <v>122.9071828287688</v>
       </c>
       <c r="S26" t="n">
         <v>44.5863519186607</v>
       </c>
       <c r="T26" t="n">
-        <v>8.56507978163191</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U26" t="n">
         <v>0.1565291564889897</v>
@@ -33022,10 +33022,10 @@
         <v>10.1106667622586</v>
       </c>
       <c r="I27" t="n">
-        <v>36.04393010160311</v>
+        <v>36.0439301016031</v>
       </c>
       <c r="J27" t="n">
-        <v>98.90729914887039</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K27" t="n">
         <v>169.0483279682448</v>
@@ -33040,7 +33040,7 @@
         <v>272.2763071458551</v>
       </c>
       <c r="O27" t="n">
-        <v>249.079627544161</v>
+        <v>249.0796275441609</v>
       </c>
       <c r="P27" t="n">
         <v>199.9083603520504</v>
@@ -33055,10 +33055,10 @@
         <v>19.44535592105593</v>
       </c>
       <c r="T27" t="n">
-        <v>4.2196651927864</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06887375178650278</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,7 +33095,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8776698861536851</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H28" t="n">
         <v>7.803283169620951</v>
@@ -33104,7 +33104,7 @@
         <v>26.39392712178537</v>
       </c>
       <c r="J28" t="n">
-        <v>62.05126095106554</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K28" t="n">
         <v>101.9692831367645</v>
@@ -33113,10 +33113,10 @@
         <v>130.4855756196124</v>
       </c>
       <c r="M28" t="n">
-        <v>137.5787440631636</v>
+        <v>137.5787440631635</v>
       </c>
       <c r="N28" t="n">
-        <v>134.3074290329545</v>
+        <v>134.3074290329544</v>
       </c>
       <c r="O28" t="n">
         <v>124.05464899925</v>
@@ -33125,7 +33125,7 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.49288473965086</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R28" t="n">
         <v>39.46322960832841</v>
@@ -33134,7 +33134,7 @@
         <v>15.29539247051467</v>
       </c>
       <c r="T28" t="n">
-        <v>3.75004405902029</v>
+        <v>3.750044059020289</v>
       </c>
       <c r="U28" t="n">
         <v>0.04787290288111015</v>
@@ -33189,31 +33189,31 @@
         <v>248.8886961217042</v>
       </c>
       <c r="L29" t="n">
-        <v>308.7684357829533</v>
+        <v>308.7684357829532</v>
       </c>
       <c r="M29" t="n">
-        <v>343.5643781168417</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N29" t="n">
-        <v>349.123608940271</v>
+        <v>349.1236089402709</v>
       </c>
       <c r="O29" t="n">
         <v>329.6675239423035</v>
       </c>
       <c r="P29" t="n">
-        <v>281.3636045570294</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q29" t="n">
-        <v>211.292349347505</v>
+        <v>211.2923493475049</v>
       </c>
       <c r="R29" t="n">
-        <v>122.9071828287689</v>
+        <v>122.9071828287688</v>
       </c>
       <c r="S29" t="n">
         <v>44.5863519186607</v>
       </c>
       <c r="T29" t="n">
-        <v>8.56507978163191</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U29" t="n">
         <v>0.1565291564889897</v>
@@ -33259,10 +33259,10 @@
         <v>10.1106667622586</v>
       </c>
       <c r="I30" t="n">
-        <v>36.04393010160311</v>
+        <v>36.0439301016031</v>
       </c>
       <c r="J30" t="n">
-        <v>98.90729914887039</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K30" t="n">
         <v>169.0483279682448</v>
@@ -33277,7 +33277,7 @@
         <v>272.2763071458551</v>
       </c>
       <c r="O30" t="n">
-        <v>249.079627544161</v>
+        <v>249.0796275441609</v>
       </c>
       <c r="P30" t="n">
         <v>199.9083603520504</v>
@@ -33292,10 +33292,10 @@
         <v>19.44535592105593</v>
       </c>
       <c r="T30" t="n">
-        <v>4.2196651927864</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06887375178650278</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8776698861536851</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H31" t="n">
         <v>7.803283169620951</v>
@@ -33341,7 +33341,7 @@
         <v>26.39392712178537</v>
       </c>
       <c r="J31" t="n">
-        <v>62.05126095106554</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K31" t="n">
         <v>101.9692831367645</v>
@@ -33350,10 +33350,10 @@
         <v>130.4855756196124</v>
       </c>
       <c r="M31" t="n">
-        <v>137.5787440631636</v>
+        <v>137.5787440631635</v>
       </c>
       <c r="N31" t="n">
-        <v>134.3074290329545</v>
+        <v>134.3074290329544</v>
       </c>
       <c r="O31" t="n">
         <v>124.05464899925</v>
@@ -33362,7 +33362,7 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.49288473965086</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R31" t="n">
         <v>39.46322960832841</v>
@@ -33371,7 +33371,7 @@
         <v>15.29539247051467</v>
       </c>
       <c r="T31" t="n">
-        <v>3.75004405902029</v>
+        <v>3.750044059020289</v>
       </c>
       <c r="U31" t="n">
         <v>0.04787290288111015</v>
@@ -33426,31 +33426,31 @@
         <v>248.8886961217042</v>
       </c>
       <c r="L32" t="n">
-        <v>308.7684357829533</v>
+        <v>308.7684357829532</v>
       </c>
       <c r="M32" t="n">
-        <v>343.5643781168417</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N32" t="n">
-        <v>349.123608940271</v>
+        <v>349.1236089402709</v>
       </c>
       <c r="O32" t="n">
         <v>329.6675239423035</v>
       </c>
       <c r="P32" t="n">
-        <v>281.3636045570294</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q32" t="n">
-        <v>211.292349347505</v>
+        <v>211.2923493475049</v>
       </c>
       <c r="R32" t="n">
-        <v>122.9071828287689</v>
+        <v>122.9071828287688</v>
       </c>
       <c r="S32" t="n">
         <v>44.5863519186607</v>
       </c>
       <c r="T32" t="n">
-        <v>8.56507978163191</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U32" t="n">
         <v>0.1565291564889897</v>
@@ -33496,10 +33496,10 @@
         <v>10.1106667622586</v>
       </c>
       <c r="I33" t="n">
-        <v>36.04393010160311</v>
+        <v>36.0439301016031</v>
       </c>
       <c r="J33" t="n">
-        <v>98.90729914887039</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K33" t="n">
         <v>169.0483279682448</v>
@@ -33514,7 +33514,7 @@
         <v>272.2763071458551</v>
       </c>
       <c r="O33" t="n">
-        <v>249.079627544161</v>
+        <v>249.0796275441609</v>
       </c>
       <c r="P33" t="n">
         <v>199.9083603520504</v>
@@ -33529,10 +33529,10 @@
         <v>19.44535592105593</v>
       </c>
       <c r="T33" t="n">
-        <v>4.2196651927864</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06887375178650278</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8776698861536851</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H34" t="n">
         <v>7.803283169620951</v>
@@ -33578,7 +33578,7 @@
         <v>26.39392712178537</v>
       </c>
       <c r="J34" t="n">
-        <v>62.05126095106554</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K34" t="n">
         <v>101.9692831367645</v>
@@ -33587,10 +33587,10 @@
         <v>130.4855756196124</v>
       </c>
       <c r="M34" t="n">
-        <v>137.5787440631636</v>
+        <v>137.5787440631635</v>
       </c>
       <c r="N34" t="n">
-        <v>134.3074290329545</v>
+        <v>134.3074290329544</v>
       </c>
       <c r="O34" t="n">
         <v>124.05464899925</v>
@@ -33599,7 +33599,7 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.49288473965086</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R34" t="n">
         <v>39.46322960832841</v>
@@ -33608,7 +33608,7 @@
         <v>15.29539247051467</v>
       </c>
       <c r="T34" t="n">
-        <v>3.75004405902029</v>
+        <v>3.750044059020289</v>
       </c>
       <c r="U34" t="n">
         <v>0.04787290288111015</v>
@@ -33663,31 +33663,31 @@
         <v>248.8886961217042</v>
       </c>
       <c r="L35" t="n">
-        <v>308.7684357829533</v>
+        <v>308.7684357829532</v>
       </c>
       <c r="M35" t="n">
-        <v>343.5643781168417</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N35" t="n">
-        <v>349.123608940271</v>
+        <v>349.1236089402709</v>
       </c>
       <c r="O35" t="n">
         <v>329.6675239423035</v>
       </c>
       <c r="P35" t="n">
-        <v>281.3636045570294</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q35" t="n">
-        <v>211.292349347505</v>
+        <v>211.2923493475049</v>
       </c>
       <c r="R35" t="n">
-        <v>122.9071828287689</v>
+        <v>122.9071828287688</v>
       </c>
       <c r="S35" t="n">
         <v>44.5863519186607</v>
       </c>
       <c r="T35" t="n">
-        <v>8.56507978163191</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U35" t="n">
         <v>0.1565291564889897</v>
@@ -33733,10 +33733,10 @@
         <v>10.1106667622586</v>
       </c>
       <c r="I36" t="n">
-        <v>36.04393010160311</v>
+        <v>36.0439301016031</v>
       </c>
       <c r="J36" t="n">
-        <v>98.90729914887039</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K36" t="n">
         <v>169.0483279682448</v>
@@ -33751,7 +33751,7 @@
         <v>272.2763071458551</v>
       </c>
       <c r="O36" t="n">
-        <v>249.079627544161</v>
+        <v>249.0796275441609</v>
       </c>
       <c r="P36" t="n">
         <v>199.9083603520504</v>
@@ -33766,10 +33766,10 @@
         <v>19.44535592105593</v>
       </c>
       <c r="T36" t="n">
-        <v>4.2196651927864</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06887375178650278</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,7 +33806,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8776698861536851</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H37" t="n">
         <v>7.803283169620951</v>
@@ -33815,7 +33815,7 @@
         <v>26.39392712178537</v>
       </c>
       <c r="J37" t="n">
-        <v>62.05126095106554</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K37" t="n">
         <v>101.9692831367645</v>
@@ -33824,10 +33824,10 @@
         <v>130.4855756196124</v>
       </c>
       <c r="M37" t="n">
-        <v>137.5787440631636</v>
+        <v>137.5787440631635</v>
       </c>
       <c r="N37" t="n">
-        <v>134.3074290329545</v>
+        <v>134.3074290329544</v>
       </c>
       <c r="O37" t="n">
         <v>124.05464899925</v>
@@ -33836,7 +33836,7 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.49288473965086</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R37" t="n">
         <v>39.46322960832841</v>
@@ -33845,7 +33845,7 @@
         <v>15.29539247051467</v>
       </c>
       <c r="T37" t="n">
-        <v>3.75004405902029</v>
+        <v>3.750044059020289</v>
       </c>
       <c r="U37" t="n">
         <v>0.04787290288111015</v>
@@ -33900,31 +33900,31 @@
         <v>248.8886961217042</v>
       </c>
       <c r="L38" t="n">
-        <v>308.7684357829533</v>
+        <v>308.7684357829532</v>
       </c>
       <c r="M38" t="n">
-        <v>343.5643781168417</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N38" t="n">
-        <v>349.123608940271</v>
+        <v>349.1236089402709</v>
       </c>
       <c r="O38" t="n">
         <v>329.6675239423035</v>
       </c>
       <c r="P38" t="n">
-        <v>281.3636045570294</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q38" t="n">
-        <v>211.292349347505</v>
+        <v>211.2923493475049</v>
       </c>
       <c r="R38" t="n">
-        <v>122.9071828287689</v>
+        <v>122.9071828287688</v>
       </c>
       <c r="S38" t="n">
         <v>44.5863519186607</v>
       </c>
       <c r="T38" t="n">
-        <v>8.56507978163191</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U38" t="n">
         <v>0.1565291564889897</v>
@@ -33970,10 +33970,10 @@
         <v>10.1106667622586</v>
       </c>
       <c r="I39" t="n">
-        <v>36.04393010160311</v>
+        <v>36.0439301016031</v>
       </c>
       <c r="J39" t="n">
-        <v>98.90729914887039</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K39" t="n">
         <v>169.0483279682448</v>
@@ -33988,7 +33988,7 @@
         <v>272.2763071458551</v>
       </c>
       <c r="O39" t="n">
-        <v>249.079627544161</v>
+        <v>249.0796275441609</v>
       </c>
       <c r="P39" t="n">
         <v>199.9083603520504</v>
@@ -34003,10 +34003,10 @@
         <v>19.44535592105593</v>
       </c>
       <c r="T39" t="n">
-        <v>4.2196651927864</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06887375178650278</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,7 +34043,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8776698861536851</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H40" t="n">
         <v>7.803283169620951</v>
@@ -34052,7 +34052,7 @@
         <v>26.39392712178537</v>
       </c>
       <c r="J40" t="n">
-        <v>62.05126095106554</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K40" t="n">
         <v>101.9692831367645</v>
@@ -34061,10 +34061,10 @@
         <v>130.4855756196124</v>
       </c>
       <c r="M40" t="n">
-        <v>137.5787440631636</v>
+        <v>137.5787440631635</v>
       </c>
       <c r="N40" t="n">
-        <v>134.3074290329545</v>
+        <v>134.3074290329544</v>
       </c>
       <c r="O40" t="n">
         <v>124.05464899925</v>
@@ -34073,7 +34073,7 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.49288473965086</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R40" t="n">
         <v>39.46322960832841</v>
@@ -34082,7 +34082,7 @@
         <v>15.29539247051467</v>
       </c>
       <c r="T40" t="n">
-        <v>3.75004405902029</v>
+        <v>3.750044059020289</v>
       </c>
       <c r="U40" t="n">
         <v>0.04787290288111015</v>
@@ -34152,7 +34152,7 @@
         <v>281.3636045570294</v>
       </c>
       <c r="Q41" t="n">
-        <v>211.2923493475053</v>
+        <v>211.292349347505</v>
       </c>
       <c r="R41" t="n">
         <v>122.9071828287689</v>
@@ -34365,7 +34365,7 @@
         <v>20.03817779866083</v>
       </c>
       <c r="I44" t="n">
-        <v>75.43237881927226</v>
+        <v>75.43237881927234</v>
       </c>
       <c r="J44" t="n">
         <v>166.0652061944675</v>
@@ -35415,19 +35415,19 @@
         <v>213.1240953268949</v>
       </c>
       <c r="L11" t="n">
-        <v>270.4563933503304</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M11" t="n">
-        <v>306.1331152174099</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N11" t="n">
-        <v>311.843986105825</v>
+        <v>311.8439861058249</v>
       </c>
       <c r="O11" t="n">
         <v>292.2765645862794</v>
       </c>
       <c r="P11" t="n">
-        <v>243.7882427467981</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q11" t="n">
         <v>175.1676747429069</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.87154335160311</v>
+        <v>19.8715433516031</v>
       </c>
       <c r="J12" t="n">
-        <v>78.29618481553706</v>
+        <v>78.29618481553705</v>
       </c>
       <c r="K12" t="n">
-        <v>146.6490941349115</v>
+        <v>146.6490941349114</v>
       </c>
       <c r="L12" t="n">
-        <v>223.2742069174962</v>
+        <v>497.191026126678</v>
       </c>
       <c r="M12" t="n">
         <v>242.1589955347562</v>
       </c>
       <c r="N12" t="n">
-        <v>524.8500981414952</v>
+        <v>250.9332789323134</v>
       </c>
       <c r="O12" t="n">
         <v>225.9077378219387</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.41450496716367</v>
+        <v>120.1233096623363</v>
       </c>
       <c r="K13" t="n">
-        <v>81.00462868405249</v>
+        <v>330.7850419305394</v>
       </c>
       <c r="L13" t="n">
-        <v>232.8330219501624</v>
+        <v>108.5668157239112</v>
       </c>
       <c r="M13" t="n">
-        <v>524.8500981414952</v>
+        <v>115.0033041716777</v>
       </c>
       <c r="N13" t="n">
-        <v>113.5585280573541</v>
+        <v>319.1823103117626</v>
       </c>
       <c r="O13" t="n">
         <v>483.0729607969905</v>
@@ -35652,19 +35652,19 @@
         <v>213.1240953268949</v>
       </c>
       <c r="L14" t="n">
-        <v>270.4563933503304</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M14" t="n">
-        <v>306.1331152174099</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N14" t="n">
-        <v>311.843986105825</v>
+        <v>311.8439861058249</v>
       </c>
       <c r="O14" t="n">
         <v>292.2765645862794</v>
       </c>
       <c r="P14" t="n">
-        <v>243.7882427467981</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q14" t="n">
         <v>175.1676747429069</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.87154335160311</v>
+        <v>19.8715433516031</v>
       </c>
       <c r="J15" t="n">
-        <v>78.29618481553706</v>
+        <v>370.6959588437235</v>
       </c>
       <c r="K15" t="n">
-        <v>146.6490941349115</v>
+        <v>146.6490941349114</v>
       </c>
       <c r="L15" t="n">
-        <v>204.7912520984917</v>
+        <v>204.7912520984916</v>
       </c>
       <c r="M15" t="n">
         <v>242.1589955347562</v>
@@ -35746,10 +35746,10 @@
         <v>178.1375191472218</v>
       </c>
       <c r="Q15" t="n">
-        <v>296.7654731803423</v>
+        <v>110.8864065106466</v>
       </c>
       <c r="R15" t="n">
-        <v>147.8462433169954</v>
+        <v>41.32553595850473</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>120.1233096623363</v>
+        <v>41.41450496716367</v>
       </c>
       <c r="K16" t="n">
-        <v>81.00462868405249</v>
+        <v>81.00462868405248</v>
       </c>
       <c r="L16" t="n">
-        <v>154.1242172549894</v>
+        <v>488.7576173311486</v>
       </c>
       <c r="M16" t="n">
-        <v>524.8500981414951</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N16" t="n">
-        <v>113.5585280573541</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O16" t="n">
-        <v>483.0729607969905</v>
+        <v>293.9127887587579</v>
       </c>
       <c r="P16" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q16" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>213.1240953268949</v>
       </c>
       <c r="L17" t="n">
-        <v>270.4563933503304</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M17" t="n">
-        <v>306.1331152174099</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N17" t="n">
-        <v>311.843986105825</v>
+        <v>311.8439861058249</v>
       </c>
       <c r="O17" t="n">
         <v>292.2765645862794</v>
       </c>
       <c r="P17" t="n">
-        <v>243.7882427467981</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q17" t="n">
         <v>175.1676747429069</v>
@@ -35962,13 +35962,13 @@
         <v>43.56579167929183</v>
       </c>
       <c r="J18" t="n">
-        <v>347.0017105160347</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K18" t="n">
-        <v>146.6490941349115</v>
+        <v>146.6490941349114</v>
       </c>
       <c r="L18" t="n">
-        <v>204.7912520984917</v>
+        <v>204.7912520984916</v>
       </c>
       <c r="M18" t="n">
         <v>242.1589955347562</v>
@@ -35986,7 +35986,7 @@
         <v>110.8864065106466</v>
       </c>
       <c r="R18" t="n">
-        <v>41.32553595850473</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>41.41450496716367</v>
       </c>
       <c r="K19" t="n">
-        <v>330.7850419305394</v>
+        <v>81.00462868405248</v>
       </c>
       <c r="L19" t="n">
         <v>488.7576173311486</v>
       </c>
       <c r="M19" t="n">
-        <v>524.8500981414952</v>
+        <v>115.0033041716777</v>
       </c>
       <c r="N19" t="n">
-        <v>113.5585280573541</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O19" t="n">
-        <v>130.270474773456</v>
+        <v>483.0729607969905</v>
       </c>
       <c r="P19" t="n">
-        <v>399.6847408185844</v>
+        <v>304.4560045953128</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.87332197486592</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.87154335160311</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J21" t="n">
-        <v>78.29618481553706</v>
+        <v>240.4810031575442</v>
       </c>
       <c r="K21" t="n">
         <v>146.6490941349115</v>
@@ -36211,19 +36211,19 @@
         <v>242.1589955347562</v>
       </c>
       <c r="N21" t="n">
-        <v>524.850098141495</v>
+        <v>250.9332789323134</v>
       </c>
       <c r="O21" t="n">
         <v>225.9077378219387</v>
       </c>
       <c r="P21" t="n">
-        <v>196.6204739662266</v>
+        <v>178.1375191472218</v>
       </c>
       <c r="Q21" t="n">
         <v>110.8864065106466</v>
       </c>
       <c r="R21" t="n">
-        <v>41.32553595850473</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>120.1233096623363</v>
+        <v>41.41450496716367</v>
       </c>
       <c r="K22" t="n">
-        <v>81.00462868405249</v>
+        <v>206.5975325992307</v>
       </c>
       <c r="L22" t="n">
         <v>488.7576173311486</v>
       </c>
       <c r="M22" t="n">
-        <v>115.0033041716777</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N22" t="n">
-        <v>515.6119854733947</v>
+        <v>113.5585280573541</v>
       </c>
       <c r="O22" t="n">
-        <v>156.2328972746078</v>
+        <v>101.5554615008256</v>
       </c>
       <c r="P22" t="n">
         <v>399.6847408185844</v>
@@ -36363,19 +36363,19 @@
         <v>213.1240953268949</v>
       </c>
       <c r="L23" t="n">
-        <v>270.4563933503304</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M23" t="n">
-        <v>306.1331152174099</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N23" t="n">
-        <v>311.843986105825</v>
+        <v>311.8439861058249</v>
       </c>
       <c r="O23" t="n">
         <v>292.2765645862794</v>
       </c>
       <c r="P23" t="n">
-        <v>243.7882427467981</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q23" t="n">
         <v>175.1676747429069</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.87154335160311</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J24" t="n">
-        <v>370.6959588437235</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K24" t="n">
-        <v>146.6490941349115</v>
+        <v>146.6490941349114</v>
       </c>
       <c r="L24" t="n">
-        <v>204.7912520984917</v>
+        <v>204.7912520984916</v>
       </c>
       <c r="M24" t="n">
         <v>242.1589955347562</v>
@@ -36460,7 +36460,7 @@
         <v>110.8864065106466</v>
       </c>
       <c r="R24" t="n">
-        <v>41.32553595850473</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>120.1233096623363</v>
+        <v>41.41450496716367</v>
       </c>
       <c r="K25" t="n">
-        <v>81.00462868405249</v>
+        <v>81.00462868405248</v>
       </c>
       <c r="L25" t="n">
-        <v>161.9175538087667</v>
+        <v>146.6949226889779</v>
       </c>
       <c r="M25" t="n">
-        <v>115.0033041716777</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N25" t="n">
-        <v>515.6119854733947</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O25" t="n">
         <v>483.0729607969905</v>
       </c>
       <c r="P25" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q25" t="n">
         <v>201.7758445788043</v>
@@ -36600,19 +36600,19 @@
         <v>213.1240953268949</v>
       </c>
       <c r="L26" t="n">
-        <v>270.4563933503304</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M26" t="n">
-        <v>306.1331152174099</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N26" t="n">
-        <v>311.843986105825</v>
+        <v>311.8439861058249</v>
       </c>
       <c r="O26" t="n">
         <v>292.2765645862794</v>
       </c>
       <c r="P26" t="n">
-        <v>243.7882427467981</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q26" t="n">
         <v>175.1676747429069</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>19.87154335160311</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J27" t="n">
-        <v>78.29618481553706</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K27" t="n">
-        <v>146.6490941349115</v>
+        <v>146.6490941349114</v>
       </c>
       <c r="L27" t="n">
-        <v>204.7912520984917</v>
+        <v>204.7912520984916</v>
       </c>
       <c r="M27" t="n">
         <v>242.1589955347562</v>
@@ -36691,7 +36691,7 @@
         <v>225.9077378219387</v>
       </c>
       <c r="P27" t="n">
-        <v>364.0165858169175</v>
+        <v>178.1375191472218</v>
       </c>
       <c r="Q27" t="n">
         <v>110.8864065106466</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>120.1233096623363</v>
+        <v>41.41450496716367</v>
       </c>
       <c r="K28" t="n">
-        <v>81.00462868405249</v>
+        <v>81.00462868405248</v>
       </c>
       <c r="L28" t="n">
-        <v>108.5668157239112</v>
+        <v>488.7576173311486</v>
       </c>
       <c r="M28" t="n">
         <v>524.850098141495</v>
       </c>
       <c r="N28" t="n">
-        <v>515.6119854733947</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O28" t="n">
-        <v>126.5769049120279</v>
+        <v>141.0102661548198</v>
       </c>
       <c r="P28" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q28" t="n">
         <v>201.7758445788043</v>
@@ -36837,19 +36837,19 @@
         <v>213.1240953268949</v>
       </c>
       <c r="L29" t="n">
-        <v>270.4563933503304</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M29" t="n">
-        <v>306.1331152174099</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N29" t="n">
-        <v>311.843986105825</v>
+        <v>311.8439861058249</v>
       </c>
       <c r="O29" t="n">
         <v>292.2765645862794</v>
       </c>
       <c r="P29" t="n">
-        <v>243.7882427467981</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q29" t="n">
         <v>175.1676747429069</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.87154335160311</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J30" t="n">
-        <v>78.29618481553706</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K30" t="n">
-        <v>146.6490941349115</v>
+        <v>146.6490941349114</v>
       </c>
       <c r="L30" t="n">
-        <v>204.7912520984917</v>
+        <v>204.7912520984916</v>
       </c>
       <c r="M30" t="n">
         <v>242.1589955347562</v>
@@ -36928,7 +36928,7 @@
         <v>225.9077378219387</v>
       </c>
       <c r="P30" t="n">
-        <v>364.0165858169175</v>
+        <v>178.1375191472218</v>
       </c>
       <c r="Q30" t="n">
         <v>110.8864065106466</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>120.1233096623363</v>
+        <v>41.41450496716367</v>
       </c>
       <c r="K31" t="n">
-        <v>330.7850419305394</v>
+        <v>81.00462868405248</v>
       </c>
       <c r="L31" t="n">
-        <v>285.861303304668</v>
+        <v>299.597445292916</v>
       </c>
       <c r="M31" t="n">
-        <v>524.8500981414952</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N31" t="n">
-        <v>113.5585280573541</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O31" t="n">
-        <v>101.5554615008256</v>
+        <v>483.0729607969905</v>
       </c>
       <c r="P31" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q31" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>213.1240953268949</v>
       </c>
       <c r="L32" t="n">
-        <v>270.4563933503304</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M32" t="n">
-        <v>306.1331152174099</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N32" t="n">
-        <v>311.843986105825</v>
+        <v>311.8439861058249</v>
       </c>
       <c r="O32" t="n">
         <v>292.2765645862794</v>
       </c>
       <c r="P32" t="n">
-        <v>243.7882427467981</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q32" t="n">
         <v>175.1676747429069</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.87154335160311</v>
+        <v>19.8715433516031</v>
       </c>
       <c r="J33" t="n">
-        <v>78.29618481553706</v>
+        <v>78.29618481553705</v>
       </c>
       <c r="K33" t="n">
-        <v>146.6490941349115</v>
+        <v>439.0488681630978</v>
       </c>
       <c r="L33" t="n">
-        <v>204.7912520984917</v>
+        <v>204.7912520984916</v>
       </c>
       <c r="M33" t="n">
         <v>242.1589955347562</v>
@@ -37165,13 +37165,13 @@
         <v>225.9077378219387</v>
       </c>
       <c r="P33" t="n">
-        <v>364.0165858169175</v>
+        <v>178.1375191472218</v>
       </c>
       <c r="Q33" t="n">
         <v>110.8864065106466</v>
       </c>
       <c r="R33" t="n">
-        <v>147.8462433169954</v>
+        <v>41.32553595850473</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,16 +37229,16 @@
         <v>41.41450496716367</v>
       </c>
       <c r="K34" t="n">
-        <v>234.9268272728837</v>
+        <v>81.00462868405248</v>
       </c>
       <c r="L34" t="n">
-        <v>488.7576173311486</v>
+        <v>393.5288811078767</v>
       </c>
       <c r="M34" t="n">
         <v>115.0033041716777</v>
       </c>
       <c r="N34" t="n">
-        <v>113.5585280573541</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O34" t="n">
         <v>483.0729607969905</v>
@@ -37247,7 +37247,7 @@
         <v>399.6847408185844</v>
       </c>
       <c r="Q34" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>213.1240953268949</v>
       </c>
       <c r="L35" t="n">
-        <v>270.4563933503304</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M35" t="n">
-        <v>306.1331152174099</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N35" t="n">
-        <v>311.843986105825</v>
+        <v>311.8439861058249</v>
       </c>
       <c r="O35" t="n">
         <v>292.2765645862794</v>
       </c>
       <c r="P35" t="n">
-        <v>243.7882427467981</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q35" t="n">
         <v>175.1676747429069</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.87154335160311</v>
+        <v>19.8715433516031</v>
       </c>
       <c r="J36" t="n">
         <v>370.6959588437235</v>
       </c>
       <c r="K36" t="n">
-        <v>146.6490941349115</v>
+        <v>146.6490941349114</v>
       </c>
       <c r="L36" t="n">
-        <v>204.7912520984917</v>
+        <v>204.7912520984916</v>
       </c>
       <c r="M36" t="n">
         <v>242.1589955347562</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.1233096623363</v>
+        <v>41.41450496716367</v>
       </c>
       <c r="K37" t="n">
-        <v>330.7850419305394</v>
+        <v>81.00462868405248</v>
       </c>
       <c r="L37" t="n">
-        <v>488.7576173311486</v>
+        <v>393.5288811078767</v>
       </c>
       <c r="M37" t="n">
         <v>115.0033041716777</v>
       </c>
       <c r="N37" t="n">
-        <v>515.6119854733947</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O37" t="n">
-        <v>375.2703647869162</v>
+        <v>483.0729607969905</v>
       </c>
       <c r="P37" t="n">
-        <v>83.76938266372827</v>
+        <v>399.6847408185844</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.87332197486592</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>213.1240953268949</v>
       </c>
       <c r="L38" t="n">
-        <v>270.4563933503304</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M38" t="n">
-        <v>306.1331152174099</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N38" t="n">
-        <v>311.843986105825</v>
+        <v>311.8439861058249</v>
       </c>
       <c r="O38" t="n">
         <v>292.2765645862794</v>
       </c>
       <c r="P38" t="n">
-        <v>243.7882427467981</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q38" t="n">
         <v>175.1676747429069</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.87154335160311</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J39" t="n">
-        <v>78.29618481553706</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K39" t="n">
-        <v>146.6490941349115</v>
+        <v>146.6490941349114</v>
       </c>
       <c r="L39" t="n">
-        <v>204.7912520984917</v>
+        <v>204.7912520984916</v>
       </c>
       <c r="M39" t="n">
         <v>242.1589955347562</v>
@@ -37636,7 +37636,7 @@
         <v>250.9332789323134</v>
       </c>
       <c r="O39" t="n">
-        <v>518.3075118501251</v>
+        <v>225.9077378219387</v>
       </c>
       <c r="P39" t="n">
         <v>178.1375191472218</v>
@@ -37645,7 +37645,7 @@
         <v>110.8864065106466</v>
       </c>
       <c r="R39" t="n">
-        <v>41.32553595850473</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37712,13 +37712,13 @@
         <v>115.0033041716777</v>
       </c>
       <c r="N40" t="n">
-        <v>254.906866859381</v>
+        <v>320.5090080006904</v>
       </c>
       <c r="O40" t="n">
-        <v>483.0729607969905</v>
+        <v>101.5554615008256</v>
       </c>
       <c r="P40" t="n">
-        <v>83.76938266372827</v>
+        <v>399.6847408185844</v>
       </c>
       <c r="Q40" t="n">
         <v>201.7758445788043</v>
@@ -37800,7 +37800,7 @@
         <v>243.7882427467981</v>
       </c>
       <c r="Q41" t="n">
-        <v>175.1676747429073</v>
+        <v>175.1676747429069</v>
       </c>
       <c r="R41" t="n">
         <v>87.87453293397238</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.87154335160311</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J42" t="n">
-        <v>78.29618481553706</v>
+        <v>240.4810031575442</v>
       </c>
       <c r="K42" t="n">
         <v>146.6490941349115</v>
@@ -37870,7 +37870,7 @@
         <v>242.1589955347562</v>
       </c>
       <c r="N42" t="n">
-        <v>524.8500981414951</v>
+        <v>250.9332789323134</v>
       </c>
       <c r="O42" t="n">
         <v>225.9077378219387</v>
@@ -37882,7 +37882,7 @@
         <v>110.8864065106466</v>
       </c>
       <c r="R42" t="n">
-        <v>59.80849077750968</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,22 +37943,22 @@
         <v>81.00462868405249</v>
       </c>
       <c r="L43" t="n">
-        <v>488.7576173311486</v>
+        <v>393.5288811078772</v>
       </c>
       <c r="M43" t="n">
-        <v>524.8500981414951</v>
+        <v>115.0033041716777</v>
       </c>
       <c r="N43" t="n">
-        <v>113.5585280573541</v>
+        <v>515.6119854733947</v>
       </c>
       <c r="O43" t="n">
         <v>483.0729607969905</v>
       </c>
       <c r="P43" t="n">
-        <v>143.7601454375982</v>
+        <v>399.6847408185844</v>
       </c>
       <c r="Q43" t="n">
-        <v>201.7758445788043</v>
+        <v>48.87332197486592</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.88447627530876</v>
+        <v>40.88447627530884</v>
       </c>
       <c r="J44" t="n">
         <v>136.645246708881</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.87154335160311</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J45" t="n">
-        <v>78.29618481553706</v>
+        <v>240.4810031575442</v>
       </c>
       <c r="K45" t="n">
         <v>146.6490941349115</v>
       </c>
       <c r="L45" t="n">
-        <v>497.1910261266784</v>
+        <v>204.7912520984917</v>
       </c>
       <c r="M45" t="n">
         <v>242.1589955347562</v>
@@ -38119,7 +38119,7 @@
         <v>110.8864065106466</v>
       </c>
       <c r="R45" t="n">
-        <v>41.32553595850473</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>41.41450496716367</v>
+        <v>120.1233096623363</v>
       </c>
       <c r="K46" t="n">
-        <v>234.9268272728833</v>
+        <v>330.7850419305394</v>
       </c>
       <c r="L46" t="n">
         <v>488.7576173311486</v>
       </c>
       <c r="M46" t="n">
-        <v>115.0033041716777</v>
+        <v>321.9537841150142</v>
       </c>
       <c r="N46" t="n">
         <v>113.5585280573541</v>
       </c>
       <c r="O46" t="n">
-        <v>483.0729607969905</v>
+        <v>101.5554615008256</v>
       </c>
       <c r="P46" t="n">
         <v>399.6847408185844</v>
